--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="3"/>
+    <workbookView xWindow="285" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="285">
   <si>
     <t>Scherm</t>
   </si>
@@ -855,9 +855,6 @@
   </si>
   <si>
     <t>Verstuur naar P-Direct</t>
-  </si>
-  <si>
-    <t>conditie</t>
   </si>
   <si>
     <t>Actie</t>
@@ -907,6 +904,18 @@
     <t>Het verwerken door de kennismotor gaat per periodeverantwoording. Het is niet noodzakelijk om alle periodeverantwoordingen in één enkele transactie door de kennismotor te halen. De kennismotor moet net zolang worden aangeroepen, totdat er geen periodeverantwoording meer is met de status 'te verwerken'. 
 Zolang de kennismotor loopt, moet het duidelijk zijn voor de gebruiker dat er op de achtergrond wordt gewerkt. Dat kan bijvoorbeeld zijn door de tellertjes bij te werken in het scherm, maar mag ook anders worden opgelost. 
 Indien tijdens het verwerken op vernieuwen vanuit Spin wordt gedrukt, dan mag de kennismotor worden gestopt. Immers, zowel de nog niet verwerkte periodeverantwoordingen als ook de periodeverantwoordingen die door de kennismotor zijn verwerkt, zullen worden verwijderd.</t>
+  </si>
+  <si>
+    <t>activeringsEvent</t>
+  </si>
+  <si>
+    <t>activeringsConditie</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Klik op knop</t>
   </si>
 </sst>
 </file>
@@ -1286,17 +1295,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1493,7 +1502,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1671,7 +1680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1803,16 +1812,16 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1867,7 +1876,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1933,7 +1942,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2056,7 +2065,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2088,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2102,7 +2111,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2125,7 +2134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -2248,7 +2257,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2348,7 +2357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2434,7 +2443,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2457,7 +2466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -2477,7 +2486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2649,7 +2658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -2695,7 +2704,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -2741,7 +2750,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -2810,7 +2819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -2911,7 +2920,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -2937,7 +2946,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -2960,7 +2969,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -3023,7 +3032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -3053,25 +3062,25 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="864" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="870" topLeftCell="A16" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -3318,7 +3327,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -3414,7 +3423,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -3472,7 +3481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -3504,7 +3513,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -3536,7 +3545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>227</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>229</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>231</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -3777,7 +3786,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -3809,7 +3818,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -3899,7 +3908,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>240</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>185</v>
       </c>
@@ -3948,7 +3957,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>185</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>185</v>
       </c>
@@ -4000,7 +4009,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>185</v>
       </c>
@@ -4026,7 +4035,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>185</v>
       </c>
@@ -4052,7 +4061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>185</v>
       </c>
@@ -4078,7 +4087,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>185</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>200</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>200</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>201</v>
       </c>
@@ -4179,7 +4188,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>201</v>
       </c>
@@ -4202,7 +4211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>202</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>203</v>
       </c>
@@ -4251,7 +4260,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>203</v>
       </c>
@@ -4274,7 +4283,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>203</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>203</v>
       </c>
@@ -4323,7 +4332,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>203</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>203</v>
       </c>
@@ -4375,7 +4384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>206</v>
       </c>
@@ -4401,7 +4410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>206</v>
       </c>
@@ -4427,7 +4436,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>206</v>
       </c>
@@ -4453,7 +4462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>206</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>206</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>206</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>206</v>
       </c>
@@ -4568,21 +4577,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
@@ -4596,10 +4605,10 @@
         <v>262</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
@@ -4650,7 +4659,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4709,113 +4718,127 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="40.5546875" style="4"/>
+    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="40.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="C6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>155</v>
       </c>
     </row>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="306">
   <si>
     <t>Scherm</t>
   </si>
@@ -851,16 +851,10 @@
     <t>er bestaan periodeverantwoordingen met status 'uitval'</t>
   </si>
   <si>
-    <t>Vernieuw vanuit Spin</t>
-  </si>
-  <si>
     <t>Verstuur naar P-Direct</t>
   </si>
   <si>
     <t>Actie</t>
-  </si>
-  <si>
-    <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit DTV. Haal daarna de nieuwe batch op uit SPIN</t>
   </si>
   <si>
     <t>beschrijving</t>
@@ -883,19 +877,6 @@
   </si>
   <si>
     <t>Er is géén periodeverantwoording met de status 'te verwerken'</t>
-  </si>
-  <si>
-    <t>De terugkoppelberichten voor medewerkers en teamleiders worden vrijgegeven via een signaal naar het datawarehouse.</t>
-  </si>
-  <si>
-    <t>Het idee is dat dit signaal aan het datawarehouse er toe leidt, dat de medewerkers die te corrigeren periodeverantwoordingen hebben, daarvan in kennis worden gesteld.</t>
-  </si>
-  <si>
-    <t>Maak een P-Direct bestand aan, waarin alle periodeverantwoordingen worden opgenomen met de status 'te verzenden'. Die periodeverantwoordingen krijgen de status 'verzonden'. 
-Verwijder aansluitend alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit DTV.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Het aanmaken van het bestand is een atomaire actie, zodat precies bekend is welke periodeverantwoordingen zijn opgenomen. </t>
   </si>
   <si>
     <t>Rollen</t>
@@ -915,14 +896,96 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Klik op knop</t>
+    <t>Knop</t>
+  </si>
+  <si>
+    <t>[Knoppen]</t>
+  </si>
+  <si>
+    <t>KNOP-1</t>
+  </si>
+  <si>
+    <t>KNOP-2</t>
+  </si>
+  <si>
+    <t>KNOP-3</t>
+  </si>
+  <si>
+    <t>Vernieuw alle periodeverantwoordingen</t>
+  </si>
+  <si>
+    <t>KNOP-4</t>
+  </si>
+  <si>
+    <t>Klik</t>
+  </si>
+  <si>
+    <t>Het tijdstip van de klik wordt in een record opgeslagen, wat periodiek door SAS wordt uitgelezen. SAS stelt aan de hand van deze datum vast dat er nieuwe verantwoordingen klaarstaan. SAS zal de terugkoppelberichten voor medewerkers en teamleiders zelf uitlezen.</t>
+  </si>
+  <si>
+    <t>Maak een P-Direct bestand aan, waarin alle periodeverantwoordingen worden verwerkt met de status 'te verzenden'. Die periodeverantwoordingen krijgen de status 'verzonden'. Muteer tevens de urentegoeden conform de toelageresultaten. Van belang is dat elke periodeverantwoording in z'n geheel volledig wordt verwerkt. Het mag bijvoorbeeld niet voorkomen dat er toelageresultaten uit een periodeverantwoording naar P-Direkt gaan, terwijl de mutaties van urentegoeden vanuit diezelfde verantwoording niet verwerkt zijn.
+Verwijder aansluitend alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit de overzichten in het startscherm, maar laat ze bestaan in de DTV-applicatie zodat SAS erbij kan. Ze worden pas verwijderd bij de volgende keer dat KNOP-1 wordt gebruikt.</t>
+  </si>
+  <si>
+    <t>Het consistent zijn van elke periodeverantwoording is van belang, zodat SAS altijd interpreteerbare gegevens ophaalt.</t>
+  </si>
+  <si>
+    <t>Het idee is dat dit signaal aan het datawarehouse er toe leidt, dat de medewerkers die te corrigeren periodeverantwoordingen hebben, daarvan in kennis worden gesteld. Vanuit de techniek is voorgesteld om de systeem-datum-en-tijd op te slaan in een record van de tabel applicatie-parameters.</t>
+  </si>
+  <si>
+    <t>Verwerk in kennismotor</t>
+  </si>
+  <si>
+    <t>Vrijgeven voor datawarehouse</t>
+  </si>
+  <si>
+    <t>KNOP-5</t>
+  </si>
+  <si>
+    <t>berekening</t>
+  </si>
+  <si>
+    <t>Achter de hyperlink bestaat er een Excel-bestand</t>
+  </si>
+  <si>
+    <t>Door het klikken op deze knop wordt Excel met daarin de onderbouwing van de periodeverantwoording aangeroepen. Editen van het bestand in Excel moet mogelijk zijn, maar opslaan van het gewijzigde resultaat in DTV niet.</t>
+  </si>
+  <si>
+    <t>De DTV-applicatie maakt de onderbouwing van berekeningen door de kennismotor beschikbaar voor de gebruiker. Voor elke opgeslagen periodeverantwoording die door KODE verwerkt is bestaat een XML-structuur, die door Excel direct leesbaar is. Omdat het opgeslagen Excel-bestand ook formules bevat, heeft de gebruiker de mogelijkheid om nog wat te "spelen" met deze verantwoording. Uiteraard mogen de resultaten daarvan niet terug naar de DTV-applicatie, want die slaat uitsluitend de verantwoording van de kennismotor zelf op.</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>DTV-107</t>
+  </si>
+  <si>
+    <t>DTV-104</t>
+  </si>
+  <si>
+    <t>DTV-109</t>
+  </si>
+  <si>
+    <t>voorverwerken</t>
+  </si>
+  <si>
+    <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de geaccordeerde dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'.</t>
+  </si>
+  <si>
+    <t>KNOP-0</t>
+  </si>
+  <si>
+    <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de definitieve dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'. De DTV-applicatie moet garanderen dat deze resultaten NIET naar P-Direkt worden verstuurd, noch enige mutatie van urentegoeden in de DTV-applicatie tot gevolg hebben.</t>
+  </si>
+  <si>
+    <t>Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot verwerking in DTV of P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,7 +1066,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -1077,7 +1140,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1112,7 +1174,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1288,24 +1349,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,7 +1389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1409,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1425,7 +1486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1445,7 +1506,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1526,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1485,7 +1546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1534,7 +1595,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1551,7 +1612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1652,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1667,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1684,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1643,7 +1704,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1680,7 +1741,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1758,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +1766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1722,7 +1783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1803,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1817,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1773,7 +1834,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1784,7 +1845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1805,23 +1866,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1850,7 +1911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -1876,7 +1937,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1902,7 +1963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1919,7 +1980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -1942,7 +2003,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1965,7 +2026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1985,7 +2046,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1996,7 +2057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -2019,7 +2080,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -2042,7 +2103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -2065,7 +2126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -2088,7 +2149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2111,7 +2172,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2134,7 +2195,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -2157,7 +2218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -2177,7 +2238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -2197,7 +2258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2278,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>191</v>
       </c>
@@ -2237,7 +2298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>192</v>
       </c>
@@ -2257,7 +2318,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2280,7 +2341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -2300,7 +2361,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -2320,7 +2381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2340,7 +2401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -2357,7 +2418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -2380,7 +2441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -2403,7 +2464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2423,7 +2484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2443,7 +2504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2466,7 +2527,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -2486,7 +2547,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2506,7 +2567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2526,7 +2587,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -2549,7 +2610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -2572,7 +2633,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -2595,7 +2656,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -2615,7 +2676,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -2635,7 +2696,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -2658,7 +2719,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2681,7 +2742,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -2704,7 +2765,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -2727,7 +2788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -2750,7 +2811,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2773,7 +2834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2796,7 +2857,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -2819,7 +2880,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -2845,7 +2906,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -2868,7 +2929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -2891,7 +2952,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>158</v>
       </c>
@@ -2920,7 +2981,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -2946,7 +3007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>208</v>
       </c>
@@ -2969,7 +3030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -2992,7 +3053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -3009,7 +3070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>165</v>
       </c>
@@ -3032,7 +3093,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -3058,29 +3119,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="870" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="876" topLeftCell="A16" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -3118,7 +3179,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3150,7 +3211,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -3176,7 +3237,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -3202,7 +3263,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -3231,7 +3292,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -3260,7 +3321,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -3295,7 +3356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -3327,7 +3388,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -3359,7 +3420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>234</v>
       </c>
@@ -3391,7 +3452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -3423,7 +3484,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -3455,7 +3516,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -3481,7 +3542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -3513,7 +3574,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -3545,7 +3606,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -3580,7 +3641,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>227</v>
       </c>
@@ -3609,7 +3670,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>228</v>
       </c>
@@ -3638,7 +3699,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>229</v>
       </c>
@@ -3667,7 +3728,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>231</v>
       </c>
@@ -3702,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>231</v>
       </c>
@@ -3713,7 +3774,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -3751,7 +3812,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -3786,7 +3847,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -3818,7 +3879,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>233</v>
       </c>
@@ -3847,7 +3908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -3879,7 +3940,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -3908,7 +3969,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>240</v>
       </c>
@@ -3931,7 +3992,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11">
       <c r="B34" t="s">
         <v>185</v>
       </c>
@@ -3957,7 +4018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11">
       <c r="B35" t="s">
         <v>185</v>
       </c>
@@ -3983,7 +4044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11">
       <c r="B36" t="s">
         <v>185</v>
       </c>
@@ -4009,7 +4070,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11">
       <c r="B37" t="s">
         <v>185</v>
       </c>
@@ -4035,7 +4096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11">
       <c r="B38" t="s">
         <v>185</v>
       </c>
@@ -4061,7 +4122,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11">
       <c r="B39" t="s">
         <v>185</v>
       </c>
@@ -4087,7 +4148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11">
       <c r="B40" t="s">
         <v>185</v>
       </c>
@@ -4113,7 +4174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11">
       <c r="B42" t="s">
         <v>200</v>
       </c>
@@ -4139,7 +4200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11">
       <c r="B43" t="s">
         <v>200</v>
       </c>
@@ -4165,7 +4226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11">
       <c r="B45" t="s">
         <v>201</v>
       </c>
@@ -4188,7 +4249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11">
       <c r="B46" t="s">
         <v>201</v>
       </c>
@@ -4211,7 +4272,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11">
       <c r="B47" t="s">
         <v>202</v>
       </c>
@@ -4237,7 +4298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11">
       <c r="B48" t="s">
         <v>203</v>
       </c>
@@ -4260,7 +4321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11">
       <c r="B49" t="s">
         <v>203</v>
       </c>
@@ -4283,7 +4344,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11">
       <c r="B50" t="s">
         <v>203</v>
       </c>
@@ -4306,7 +4367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11">
       <c r="B51" t="s">
         <v>203</v>
       </c>
@@ -4332,7 +4393,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11">
       <c r="B52" t="s">
         <v>203</v>
       </c>
@@ -4358,7 +4419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11">
       <c r="B53" t="s">
         <v>203</v>
       </c>
@@ -4384,7 +4445,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="B55" t="s">
         <v>206</v>
       </c>
@@ -4410,7 +4471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="B56" t="s">
         <v>206</v>
       </c>
@@ -4436,7 +4497,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11">
       <c r="B57" t="s">
         <v>206</v>
       </c>
@@ -4462,7 +4523,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11">
       <c r="B58" t="s">
         <v>206</v>
       </c>
@@ -4488,7 +4549,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11">
       <c r="B59" t="s">
         <v>206</v>
       </c>
@@ -4514,7 +4575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11">
       <c r="B60" t="s">
         <v>206</v>
       </c>
@@ -4540,7 +4601,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11">
       <c r="B61" t="s">
         <v>206</v>
       </c>
@@ -4574,24 +4635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>77</v>
       </c>
@@ -4605,10 +4666,10 @@
         <v>262</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
@@ -4625,7 +4686,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4703,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4659,7 +4720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4676,7 +4737,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="4" t="s">
         <v>244</v>
       </c>
@@ -4693,7 +4754,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.2">
       <c r="A7" s="4" t="s">
         <v>248</v>
       </c>
@@ -4717,129 +4778,223 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="40.5703125" style="4"/>
+    <col min="1" max="1" width="15.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="40.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="115.2">
+      <c r="A3" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="316.8">
+      <c r="A4" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="115.2">
+      <c r="A5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="302.39999999999998">
+      <c r="A6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="H6" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="187.2">
+      <c r="A7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="172.8">
+      <c r="A8" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>155</v>
+      <c r="H8" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="318">
   <si>
     <t>Scherm</t>
   </si>
@@ -227,12 +227,6 @@
     <t>rol</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>HR, FAB</t>
-  </si>
-  <si>
     <t>FAB</t>
   </si>
   <si>
@@ -864,9 +858,6 @@
   </si>
   <si>
     <t>Stuur elk van de periodeverantwoordingen met de status 'te verwerken' door de kennismotor. (de status van elk van die periodeverantwoordingen verandert daardoor in 'te corrigeren' of 'te verzenden'.</t>
-  </si>
-  <si>
-    <t>Er is tenminste één periodeverantwoording met de status 'te verwerken'</t>
   </si>
   <si>
     <t>De actie 'verstuur naar P-Direct' wordt niet uitgevoerd.</t>
@@ -966,6 +957,9 @@
     <t>DTV-109</t>
   </si>
   <si>
+    <t>KNOP-6</t>
+  </si>
+  <si>
     <t>voorverwerken</t>
   </si>
   <si>
@@ -979,6 +973,48 @@
   </si>
   <si>
     <t>Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot verwerking in DTV of P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken.</t>
+  </si>
+  <si>
+    <t>Er is tenminste één periodeverantwoording met de status 'te verwerken', en er is geen upload van P-Direktgegevens aan de gang.</t>
+  </si>
+  <si>
+    <t>De actie 'verstuur naar P-Direct' is niet in uitvoering en er is geen verwerking door de kennismotor aan de gang.</t>
+  </si>
+  <si>
+    <t>lees medewerkerrechten in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lees van het aangeboden .xls-bestand de kolommen </t>
+  </si>
+  <si>
+    <t>KNOP-7</t>
+  </si>
+  <si>
+    <t>DTV-86</t>
+  </si>
+  <si>
+    <t>DTV-110</t>
+  </si>
+  <si>
+    <t>lees arbeidsmodaliteiten in</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Lees van het aangeboden .xls-bestand de kolommen Personeelsnummer, maandag, dinsdag, woensdag, donderdag, vrijdag, maandag, dinsdag, woensdag, donderdag, vrijdag en gebruik deze informatie voor het verrijken van dagverantwoordingen in elke periodebatch, totdat een nieuw .xls-bestand deze informatie overschrijft.</t>
+  </si>
+  <si>
+    <t>DTV1001</t>
+  </si>
+  <si>
+    <t>P&amp;O, FAB</t>
+  </si>
+  <si>
+    <t>Overzichten &gt; Perioderesultaten &gt; PeriodeResultaat</t>
+  </si>
+  <si>
+    <t>lijst van perioderesultaten</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1050,6 +1086,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1383,10 +1422,10 @@
         <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1394,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1403,10 +1442,10 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1417,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1426,7 +1465,7 @@
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1437,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1446,7 +1485,7 @@
         <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1457,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1474,7 +1513,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>32</v>
@@ -1483,7 +1522,7 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1494,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -1503,7 +1542,7 @@
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1514,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1523,7 +1562,7 @@
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1534,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1543,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1554,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
@@ -1571,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
@@ -1588,7 +1627,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -1603,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1620,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -1629,7 +1668,7 @@
         <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1640,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>41</v>
@@ -1649,7 +1688,7 @@
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1660,11 +1699,11 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1"/>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1675,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1692,7 +1731,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -1701,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1712,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>315</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -1729,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>27</v>
@@ -1738,7 +1777,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1749,13 +1788,13 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1774,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
@@ -1791,69 +1830,86 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E24" t="s">
         <v>50</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1884,1098 +1940,1098 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>92</v>
-      </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
         <v>191</v>
       </c>
-      <c r="D19" t="s">
-        <v>193</v>
-      </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H21" t="s">
         <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" t="s">
         <v>129</v>
       </c>
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" t="s">
-        <v>131</v>
-      </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
-        <v>142</v>
-      </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
-        <v>143</v>
-      </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" t="s">
         <v>148</v>
       </c>
-      <c r="C46" t="s">
-        <v>150</v>
-      </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>153</v>
-      </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" t="s">
+        <v>205</v>
+      </c>
+      <c r="F49" t="s">
         <v>155</v>
       </c>
-      <c r="E49" t="s">
-        <v>207</v>
-      </c>
-      <c r="F49" t="s">
-        <v>157</v>
-      </c>
       <c r="G49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" t="s">
         <v>155</v>
-      </c>
-      <c r="E50" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" t="s">
-        <v>92</v>
-      </c>
-      <c r="H50" t="s">
-        <v>157</v>
       </c>
       <c r="I50">
         <v>5010</v>
@@ -2983,134 +3039,134 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s">
         <v>155</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="s">
         <v>155</v>
       </c>
-      <c r="E52" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" t="s">
-        <v>157</v>
-      </c>
       <c r="G52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" t="s">
         <v>155</v>
       </c>
-      <c r="E53" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" t="s">
-        <v>157</v>
-      </c>
       <c r="G53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" t="s">
         <v>155</v>
       </c>
-      <c r="E55" t="s">
-        <v>207</v>
-      </c>
-      <c r="F55" t="s">
-        <v>157</v>
-      </c>
       <c r="G55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
         <v>155</v>
       </c>
-      <c r="E56" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" t="s">
-        <v>157</v>
-      </c>
       <c r="G56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3143,621 +3199,621 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K3" t="s">
         <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" t="s">
-        <v>219</v>
-      </c>
       <c r="K4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
         <v>191</v>
       </c>
-      <c r="H5" t="s">
-        <v>193</v>
-      </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
         <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>224</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" t="s">
         <v>234</v>
       </c>
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" t="s">
-        <v>236</v>
-      </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" t="s">
         <v>210</v>
       </c>
-      <c r="B15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>211</v>
-      </c>
-      <c r="G15" t="s">
-        <v>246</v>
-      </c>
-      <c r="H15" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" t="s">
-        <v>212</v>
-      </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
         <v>154</v>
       </c>
-      <c r="G23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>155</v>
-      </c>
-      <c r="I23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" t="s">
-        <v>157</v>
       </c>
       <c r="L23" t="s">
         <v>1</v>
@@ -3765,48 +3821,48 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L25">
         <v>5010</v>
@@ -3814,817 +3870,817 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I27" t="s">
         <v>155</v>
       </c>
-      <c r="I27" t="s">
-        <v>157</v>
-      </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" t="s">
         <v>155</v>
       </c>
-      <c r="I28" t="s">
-        <v>157</v>
-      </c>
       <c r="J28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" t="s">
         <v>155</v>
       </c>
-      <c r="I29" t="s">
-        <v>157</v>
-      </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" t="s">
         <v>155</v>
       </c>
-      <c r="I30" t="s">
-        <v>157</v>
-      </c>
       <c r="J30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" t="s">
         <v>129</v>
       </c>
-      <c r="H32" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" t="s">
-        <v>131</v>
-      </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" t="s">
         <v>185</v>
       </c>
-      <c r="C40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H40" t="s">
-        <v>187</v>
-      </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H45" t="s">
         <v>40</v>
       </c>
       <c r="I45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H46" t="s">
         <v>40</v>
       </c>
       <c r="I46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H50" t="s">
         <v>40</v>
       </c>
       <c r="I50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s">
         <v>40</v>
       </c>
       <c r="I51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C52" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H52" t="s">
         <v>40</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
         <v>40</v>
       </c>
       <c r="I53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J53" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
         <v>40</v>
       </c>
       <c r="I55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G56" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H56" t="s">
         <v>40</v>
       </c>
       <c r="I56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H57" t="s">
         <v>40</v>
       </c>
       <c r="I57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" t="s">
         <v>140</v>
       </c>
-      <c r="G58" t="s">
-        <v>142</v>
-      </c>
       <c r="H58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I58" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" t="s">
         <v>141</v>
       </c>
-      <c r="G59" t="s">
-        <v>143</v>
-      </c>
       <c r="H59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4654,36 +4710,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2">
@@ -4691,16 +4747,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2">
@@ -4708,16 +4764,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2">
@@ -4725,50 +4781,50 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2">
       <c r="A7" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4779,10 +4835,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
@@ -4800,204 +4856,245 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="115.2">
       <c r="A3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="316.8">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="115.2">
       <c r="A5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="302.39999999999998">
       <c r="A6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="187.2">
       <c r="A7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="172.8">
       <c r="A8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6">
+      <c r="A9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>300</v>
+      <c r="E9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="115.2">
+      <c r="A10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
     <sheet name="Interfaces 10 juni" sheetId="2" r:id="rId2"/>
     <sheet name="Gewenste Transacties" sheetId="3" r:id="rId3"/>
     <sheet name="Tabbladen" sheetId="4" r:id="rId4"/>
-    <sheet name="Knoppen" sheetId="5" r:id="rId5"/>
+    <sheet name="Functies" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc411507377" localSheetId="0">Schermen!$F$25</definedName>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="377">
   <si>
     <t>Scherm</t>
   </si>
@@ -878,37 +878,10 @@
 Indien tijdens het verwerken op vernieuwen vanuit Spin wordt gedrukt, dan mag de kennismotor worden gestopt. Immers, zowel de nog niet verwerkte periodeverantwoordingen als ook de periodeverantwoordingen die door de kennismotor zijn verwerkt, zullen worden verwijderd.</t>
   </si>
   <si>
-    <t>activeringsEvent</t>
-  </si>
-  <si>
     <t>activeringsConditie</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Knop</t>
-  </si>
-  <si>
-    <t>[Knoppen]</t>
-  </si>
-  <si>
-    <t>KNOP-1</t>
-  </si>
-  <si>
-    <t>KNOP-2</t>
-  </si>
-  <si>
-    <t>KNOP-3</t>
-  </si>
-  <si>
     <t>Vernieuw alle periodeverantwoordingen</t>
-  </si>
-  <si>
-    <t>KNOP-4</t>
-  </si>
-  <si>
-    <t>Klik</t>
   </si>
   <si>
     <t>Het tijdstip van de klik wordt in een record opgeslagen, wat periodiek door SAS wordt uitgelezen. SAS stelt aan de hand van deze datum vast dat er nieuwe verantwoordingen klaarstaan. SAS zal de terugkoppelberichten voor medewerkers en teamleiders zelf uitlezen.</t>
@@ -930,9 +903,6 @@
     <t>Vrijgeven voor datawarehouse</t>
   </si>
   <si>
-    <t>KNOP-5</t>
-  </si>
-  <si>
     <t>berekening</t>
   </si>
   <si>
@@ -957,24 +927,15 @@
     <t>DTV-109</t>
   </si>
   <si>
-    <t>KNOP-6</t>
-  </si>
-  <si>
     <t>voorverwerken</t>
   </si>
   <si>
     <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de geaccordeerde dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'.</t>
   </si>
   <si>
-    <t>KNOP-0</t>
-  </si>
-  <si>
     <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de definitieve dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'. De DTV-applicatie moet garanderen dat deze resultaten NIET naar P-Direkt worden verstuurd, noch enige mutatie van urentegoeden in de DTV-applicatie tot gevolg hebben.</t>
   </si>
   <si>
-    <t>Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot verwerking in DTV of P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken.</t>
-  </si>
-  <si>
     <t>Er is tenminste één periodeverantwoording met de status 'te verwerken', en er is geen upload van P-Direktgegevens aan de gang.</t>
   </si>
   <si>
@@ -987,9 +948,6 @@
     <t xml:space="preserve">Lees van het aangeboden .xls-bestand de kolommen </t>
   </si>
   <si>
-    <t>KNOP-7</t>
-  </si>
-  <si>
     <t>DTV-86</t>
   </si>
   <si>
@@ -1015,6 +973,225 @@
   </si>
   <si>
     <t>lijst van perioderesultaten</t>
+  </si>
+  <si>
+    <t>Beheer &gt;  Arbeidsmodaliteiten Import</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Verwerk zonder opslaan</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Inladen geaccordeerde dagverantwoordingen</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Inladen definitieve dagverantwoordingen</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Vrijgeven van feedback</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Verstuur naar P-Direct</t>
+  </si>
+  <si>
+    <t>uiterlijk</t>
+  </si>
+  <si>
+    <t>actie</t>
+  </si>
+  <si>
+    <t>icoontje op of bij de combinatie van medewerker/verantwoordingsperiode</t>
+  </si>
+  <si>
+    <t>[Functies]</t>
+  </si>
+  <si>
+    <t>Fie-1</t>
+  </si>
+  <si>
+    <t>Fie-2</t>
+  </si>
+  <si>
+    <t>Fie-3</t>
+  </si>
+  <si>
+    <t>Fie-4</t>
+  </si>
+  <si>
+    <t>Fie-5</t>
+  </si>
+  <si>
+    <t>Fie-6</t>
+  </si>
+  <si>
+    <t>Fie-7</t>
+  </si>
+  <si>
+    <t>Fie-8</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Batchresultaat</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>CUD</t>
+  </si>
+  <si>
+    <t>proces</t>
+  </si>
+  <si>
+    <t>Proces</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wijzig urentegoed </t>
+  </si>
+  <si>
+    <t>het muteren van urentegoeden</t>
+  </si>
+  <si>
+    <t>het muteren van medewerkerrechten</t>
+  </si>
+  <si>
+    <t>het opvoeren van nieuwe medewerkers met hun categorie en salarisschaal</t>
+  </si>
+  <si>
+    <t>wijzig medewerkerrechten</t>
+  </si>
+  <si>
+    <t>DTV-113</t>
+  </si>
+  <si>
+    <t>DTV-102</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Stamgegeven</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>DTV-108</t>
+  </si>
+  <si>
+    <t>FO-DTV vs. 1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geïnformeerd accorderen door teamleiders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verantwoorden ten behoeve van Leidinggevenden en Control </t>
+  </si>
+  <si>
+    <t xml:space="preserve">het beheren van referentielijsten (stamtabellen) door een functioneel beheerder (FAB) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">het corrigeren met terugwerkende kracht van individuele registraties van urentegoeden en medewerkerrechten, wanneer administratieve fouten in het verleden dat noodzakelijk maken </t>
+  </si>
+  <si>
+    <t>FO-initiële gegevens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrigeer TWK urentegoed </t>
+  </si>
+  <si>
+    <t>upload urentegoeden</t>
+  </si>
+  <si>
+    <t>het corrigeren met terugwerkende kracht van alle registraties van medewerkerrechten vanaf een bepaalde datum door het inlezen van een Excel-bestand met de correcte gegevens.</t>
+  </si>
+  <si>
+    <t>het corrigeren met terugwerkende kracht van alle registraties van urentegoeden vanaf een bepaalde datum door het inlezen van een Excel-bestand met de correcte gegevens.</t>
+  </si>
+  <si>
+    <t>upload medewerkerrechten</t>
+  </si>
+  <si>
+    <t>via SAS</t>
+  </si>
+  <si>
+    <t>Beheer &gt; Referentielijsten</t>
+  </si>
+  <si>
+    <t>Fie-9</t>
+  </si>
+  <si>
+    <t>Fie-10</t>
+  </si>
+  <si>
+    <t>Fie-11</t>
+  </si>
+  <si>
+    <t>Fie-12</t>
+  </si>
+  <si>
+    <t>Fie-13</t>
+  </si>
+  <si>
+    <t>Fie-14</t>
+  </si>
+  <si>
+    <t>Fie-15</t>
+  </si>
+  <si>
+    <t>muteer stamgegevens</t>
+  </si>
+  <si>
+    <t>DTV1011</t>
+  </si>
+  <si>
+    <t>DTV9025</t>
+  </si>
+  <si>
+    <t>Beheer &gt; import arbeidsmodaliteiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot verwerking in DTV of P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken. Zolang er definitieve dagverantwoordingen in de periodebatch zitten,  is de knop "verstuur naar P-Direkt" niet aanwezig in de applicatie. </t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1089,6 +1266,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1433,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1456,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1476,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1642,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1751,7 +1937,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -1897,7 +2083,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -1906,10 +2092,29 @@
         <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E29" t="s">
-        <v>317</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4835,40 +5040,44 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.5546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.5546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="40.5546875" style="4"/>
+    <col min="9" max="9" width="42.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="40.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>265</v>
@@ -4877,18 +5086,21 @@
         <v>270</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>263</v>
@@ -4899,199 +5111,584 @@
       <c r="F2" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="115.2">
+      <c r="I2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="144">
       <c r="A3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100.8">
+      <c r="A4" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="216">
+      <c r="A5" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="86.4">
+      <c r="A6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="244.8">
+      <c r="A7" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="129.6">
+      <c r="A8" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="86.4">
+      <c r="A9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="316.8">
-      <c r="A4" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100.8">
+      <c r="A10" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="G11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8">
+      <c r="A12" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="43.2">
+      <c r="A13" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8">
+      <c r="A15" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2">
+      <c r="A16" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="28.8">
+      <c r="A17" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="C18" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="C19" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="115.2">
-      <c r="A5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="302.39999999999998">
-      <c r="A6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="187.2">
-      <c r="A7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="172.8">
-      <c r="A8" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="57.6">
-      <c r="A9" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="115.2">
-      <c r="A10" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>310</v>
-      </c>
+      <c r="I19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="H25" s="6"/>
+      <c r="I25" s="9"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="K28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="381">
   <si>
     <t>Scherm</t>
   </si>
@@ -1192,13 +1192,25 @@
   </si>
   <si>
     <t xml:space="preserve">Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot verwerking in DTV of P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken. Zolang er definitieve dagverantwoordingen in de periodebatch zitten,  is de knop "verstuur naar P-Direkt" niet aanwezig in de applicatie. </t>
+  </si>
+  <si>
+    <t>Beheer &gt; Urentegoeden</t>
+  </si>
+  <si>
+    <t>Beheer &gt; Medewerkers &gt; Nieuwe Medewerker</t>
+  </si>
+  <si>
+    <t>Beheer &gt; Medewerkers &gt; Medewerker</t>
+  </si>
+  <si>
+    <t>Overzichten &gt; Historische Medewerker Rechten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1273,12 +1285,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="10"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,9 +1306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1331,7 +1346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1365,6 +1380,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1399,9 +1415,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1574,14 +1591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1591,7 +1608,7 @@
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1634,7 +1651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1711,7 +1728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1731,7 +1748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1788,7 +1805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1820,7 +1837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1857,7 +1874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1877,7 +1894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1929,7 +1946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1946,7 +1963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1966,7 +1983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +2008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2008,7 +2025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2042,7 +2059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2059,7 +2076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2070,7 +2087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2081,7 +2098,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>300</v>
       </c>
@@ -2098,12 +2115,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>374</v>
       </c>
@@ -2127,14 +2144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
@@ -2143,7 +2160,7 @@
     <col min="5" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2172,7 +2189,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2198,7 +2215,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2224,7 +2241,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2241,7 +2258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -2264,7 +2281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -2287,7 +2304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2307,7 +2324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2318,7 +2335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2341,7 +2358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2364,7 +2381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2387,7 +2404,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2410,7 +2427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2433,7 +2450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2456,7 +2473,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2479,7 +2496,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2499,7 +2516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2519,7 +2536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2539,7 +2556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -2559,7 +2576,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -2579,7 +2596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2602,7 +2619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -2622,7 +2639,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2642,7 +2659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2662,7 +2679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2679,7 +2696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -2702,7 +2719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2725,7 +2742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2745,7 +2762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -2765,7 +2782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2788,7 +2805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2808,7 +2825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2828,7 +2845,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -2848,7 +2865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -2871,7 +2888,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2917,7 +2934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -2937,7 +2954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -2957,7 +2974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -2980,7 +2997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -3003,7 +3020,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -3026,7 +3043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -3049,7 +3066,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -3072,7 +3089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3095,7 +3112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -3118,7 +3135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -3141,7 +3158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -3167,7 +3184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3190,7 +3207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -3213,7 +3230,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -3242,7 +3259,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -3268,7 +3285,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -3291,7 +3308,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -3314,7 +3331,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -3331,7 +3348,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3354,7 +3371,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -3380,7 +3397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -3389,7 +3406,7 @@
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
@@ -3402,7 +3419,7 @@
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3440,7 +3457,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3472,7 +3489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -3498,7 +3515,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -3524,7 +3541,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>219</v>
       </c>
@@ -3553,7 +3570,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -3582,7 +3599,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>207</v>
       </c>
@@ -3617,7 +3634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>232</v>
       </c>
@@ -3649,7 +3666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -3681,7 +3698,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -3713,7 +3730,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -3745,7 +3762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -3777,7 +3794,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>224</v>
       </c>
@@ -3803,7 +3820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -3835,7 +3852,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -3867,7 +3884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -3902,7 +3919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -3931,7 +3948,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>226</v>
       </c>
@@ -3960,7 +3977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -3989,7 +4006,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>229</v>
       </c>
@@ -4024,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -4035,7 +4052,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -4073,7 +4090,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -4140,7 +4157,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -4169,7 +4186,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -4201,7 +4218,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -4230,7 +4247,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -4253,7 +4270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>183</v>
       </c>
@@ -4279,7 +4296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>183</v>
       </c>
@@ -4305,7 +4322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>183</v>
       </c>
@@ -4331,7 +4348,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>183</v>
       </c>
@@ -4357,7 +4374,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>183</v>
       </c>
@@ -4383,7 +4400,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>183</v>
       </c>
@@ -4409,7 +4426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>183</v>
       </c>
@@ -4435,7 +4452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>198</v>
       </c>
@@ -4461,7 +4478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>198</v>
       </c>
@@ -4487,7 +4504,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>199</v>
       </c>
@@ -4510,7 +4527,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>199</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>200</v>
       </c>
@@ -4559,7 +4576,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>201</v>
       </c>
@@ -4582,7 +4599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>201</v>
       </c>
@@ -4605,7 +4622,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>201</v>
       </c>
@@ -4628,7 +4645,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>201</v>
       </c>
@@ -4654,7 +4671,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>201</v>
       </c>
@@ -4680,7 +4697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>201</v>
       </c>
@@ -4706,7 +4723,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>204</v>
       </c>
@@ -4732,7 +4749,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>204</v>
       </c>
@@ -4758,7 +4775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>204</v>
       </c>
@@ -4784,7 +4801,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>204</v>
       </c>
@@ -4810,7 +4827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>204</v>
       </c>
@@ -4836,7 +4853,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>204</v>
       </c>
@@ -4862,7 +4879,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>204</v>
       </c>
@@ -4896,14 +4913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
@@ -4913,7 +4930,7 @@
     <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -4930,7 +4947,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -4947,7 +4964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4964,7 +4981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4981,7 +4998,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +5015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>242</v>
       </c>
@@ -5015,7 +5032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>246</v>
       </c>
@@ -5039,15 +5056,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" style="4" customWidth="1"/>
@@ -5063,7 +5080,7 @@
     <col min="12" max="16384" width="40.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>313</v>
       </c>
@@ -5098,7 +5115,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>263</v>
       </c>
@@ -5121,7 +5138,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="144">
+    <row r="3" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>314</v>
       </c>
@@ -5156,7 +5173,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="100.8">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>315</v>
       </c>
@@ -5191,7 +5208,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="216">
+    <row r="5" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>316</v>
       </c>
@@ -5226,7 +5243,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="86.4">
+    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>317</v>
       </c>
@@ -5261,7 +5278,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="244.8">
+    <row r="7" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>318</v>
       </c>
@@ -5296,7 +5313,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="129.6">
+    <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>319</v>
       </c>
@@ -5331,7 +5348,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="86.4">
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>320</v>
       </c>
@@ -5363,7 +5380,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="100.8">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>321</v>
       </c>
@@ -5395,18 +5412,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>340</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="10"/>
       <c r="G11" s="4" t="s">
         <v>153</v>
       </c>
@@ -5423,10 +5442,13 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>366</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>378</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>229</v>
       </c>
@@ -5449,10 +5471,13 @@
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.2">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>367</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>344</v>
       </c>
@@ -5462,7 +5487,7 @@
       <c r="G13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="9" t="s">
         <v>345</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -5475,14 +5500,17 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>356</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -5501,7 +5529,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8">
+    <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>369</v>
       </c>
@@ -5511,7 +5539,7 @@
       <c r="C15" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>360</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -5530,7 +5558,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.2">
+    <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>370</v>
       </c>
@@ -5540,7 +5568,7 @@
       <c r="C16" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>361</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -5559,7 +5587,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.8">
+    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>371</v>
       </c>
@@ -5569,13 +5597,13 @@
       <c r="C17" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>355</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="9" t="s">
         <v>346</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -5588,14 +5616,14 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="22.8" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="9" t="s">
         <v>351</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -5608,14 +5636,14 @@
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="9" t="s">
         <v>287</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -5628,10 +5656,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5639,39 +5667,39 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="10"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:18">
-      <c r="K28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="285" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_Toc411507378" localSheetId="0">Schermen!$F$26</definedName>
     <definedName name="_Toc411507379" localSheetId="0">Schermen!$F$6</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -566,9 +566,6 @@
     <t>Del</t>
   </si>
   <si>
-    <t>Persoon</t>
-  </si>
-  <si>
     <t>scherm</t>
   </si>
   <si>
@@ -1204,6 +1201,9 @@
   </si>
   <si>
     <t>Overzichten &gt; Historische Medewerker Rechten</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1293,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,9 +1306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1346,7 +1346,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1418,7 +1418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1598,17 +1598,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="64.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1631,12 +1631,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1651,7 +1651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1671,7 +1671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1691,7 +1691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1854,7 +1854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -1963,7 +1963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2098,9 +2098,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -2109,29 +2109,29 @@
         <v>153</v>
       </c>
       <c r="D29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E29" t="s">
         <v>302</v>
       </c>
-      <c r="E29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>374</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2147,49 +2147,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" t="s">
         <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
         <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2197,25 +2197,25 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>82</v>
@@ -2241,12 +2241,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -2258,7 +2258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -2266,10 +2266,10 @@
         <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>91</v>
@@ -2281,7 +2281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -2289,10 +2289,10 @@
         <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
         <v>77</v>
@@ -2304,15 +2304,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>89</v>
@@ -2324,7 +2324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2343,10 +2343,10 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
@@ -2358,7 +2358,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2366,10 +2366,10 @@
         <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s">
         <v>92</v>
@@ -2381,7 +2381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2389,10 +2389,10 @@
         <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2404,7 +2404,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2412,10 +2412,10 @@
         <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
         <v>94</v>
@@ -2427,7 +2427,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2435,10 +2435,10 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
         <v>95</v>
@@ -2450,7 +2450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2458,10 +2458,10 @@
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
         <v>97</v>
@@ -2473,7 +2473,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2481,10 +2481,10 @@
         <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
         <v>98</v>
@@ -2496,15 +2496,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -2516,15 +2516,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -2536,7 +2536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
         <v>87</v>
@@ -2556,58 +2556,58 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="G19" t="s">
         <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="G20" t="s">
         <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
         <v>105</v>
@@ -2619,7 +2619,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" t="s">
         <v>105</v>
@@ -2639,7 +2639,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
         <v>107</v>
@@ -2659,7 +2659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2679,7 +2679,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
@@ -2696,7 +2696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -2704,10 +2704,10 @@
         <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
@@ -2719,7 +2719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2727,10 +2727,10 @@
         <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
@@ -2742,7 +2742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2762,7 +2762,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
         <v>155</v>
@@ -2782,7 +2782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -2805,7 +2805,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2813,19 +2813,19 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" t="s">
         <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2833,19 +2833,19 @@
         <v>128</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -2853,19 +2853,19 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
         <v>155</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -2876,19 +2876,19 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F34" t="s">
         <v>155</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -2899,19 +2899,19 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F35" t="s">
         <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H35" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2922,19 +2922,19 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" t="s">
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F37" t="s">
         <v>129</v>
@@ -2954,7 +2954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
         <v>129</v>
@@ -2974,7 +2974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
         <v>133</v>
@@ -2997,7 +2997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F40" t="s">
         <v>155</v>
@@ -3020,7 +3020,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
         <v>155</v>
@@ -3043,7 +3043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
         <v>155</v>
@@ -3066,7 +3066,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
         <v>155</v>
@@ -3089,7 +3089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
         <v>133</v>
@@ -3112,7 +3112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" t="s">
         <v>155</v>
@@ -3135,7 +3135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>147</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" t="s">
         <v>91</v>
@@ -3158,7 +3158,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F47" t="s">
         <v>87</v>
@@ -3184,7 +3184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -3207,7 +3207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F49" t="s">
         <v>155</v>
@@ -3230,7 +3230,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F50" t="s">
         <v>109</v>
@@ -3259,7 +3259,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" t="s">
         <v>109</v>
@@ -3285,18 +3285,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
         <v>155</v>
@@ -3308,18 +3308,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>160</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F53" t="s">
         <v>155</v>
@@ -3331,12 +3331,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>161</v>
       </c>
       <c r="E54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F54" t="s">
         <v>162</v>
@@ -3348,7 +3348,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>153</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F55" t="s">
         <v>155</v>
@@ -3371,7 +3371,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
         <v>155</v>
@@ -3401,33 +3401,33 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="876" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="870" topLeftCell="A16" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
         <v>78</v>
@@ -3436,33 +3436,33 @@
         <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
         <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
         <v>167</v>
       </c>
       <c r="L1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -3474,36 +3474,36 @@
         <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
         <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
         <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
         <v>87</v>
@@ -3512,102 +3512,102 @@
         <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
         <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H6" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="J6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
@@ -3634,18 +3634,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" t="s">
         <v>232</v>
-      </c>
-      <c r="B9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>233</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>
@@ -3660,24 +3660,24 @@
         <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
         <v>91</v>
@@ -3692,24 +3692,24 @@
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
         <v>91</v>
@@ -3724,24 +3724,24 @@
         <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
@@ -3756,24 +3756,24 @@
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
         <v>91</v>
@@ -3788,111 +3788,111 @@
         <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" t="s">
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I14" t="s">
         <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
         <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H15" t="s">
         <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J15" t="s">
         <v>154</v>
       </c>
       <c r="K15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
         <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J16" t="s">
         <v>154</v>
       </c>
       <c r="K16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>213</v>
-      </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -3904,7 +3904,7 @@
         <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
         <v>153</v>
@@ -3919,15 +3919,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>48</v>
@@ -3942,21 +3942,21 @@
         <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
         <v>110</v>
@@ -3977,15 +3977,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" t="s">
         <v>110</v>
@@ -4000,21 +4000,21 @@
         <v>105</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
@@ -4041,26 +4041,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
         <v>154</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -4084,21 +4084,21 @@
         <v>166</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L25">
         <v>5010</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -4122,27 +4122,27 @@
         <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H27" t="s">
         <v>153</v>
@@ -4151,27 +4151,27 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>231</v>
-      </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H28" t="s">
         <v>153</v>
@@ -4180,21 +4180,21 @@
         <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
       <c r="B29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -4212,21 +4212,21 @@
         <v>155</v>
       </c>
       <c r="J29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
         <v>48</v>
@@ -4247,12 +4247,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
         <v>127</v>
@@ -4267,15 +4267,15 @@
         <v>76</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34" t="s">
         <v>91</v>
@@ -4284,7 +4284,7 @@
         <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s">
         <v>91</v>
@@ -4296,12 +4296,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E35" t="s">
         <v>92</v>
@@ -4310,7 +4310,7 @@
         <v>83</v>
       </c>
       <c r="H35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
         <v>92</v>
@@ -4322,12 +4322,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E36" t="s">
         <v>93</v>
@@ -4336,7 +4336,7 @@
         <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I36" t="s">
         <v>96</v>
@@ -4348,12 +4348,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
         <v>94</v>
@@ -4362,7 +4362,7 @@
         <v>83</v>
       </c>
       <c r="H37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I37" t="s">
         <v>94</v>
@@ -4374,12 +4374,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
         <v>95</v>
@@ -4388,7 +4388,7 @@
         <v>83</v>
       </c>
       <c r="H38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I38" t="s">
         <v>95</v>
@@ -4400,12 +4400,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
         <v>97</v>
@@ -4414,7 +4414,7 @@
         <v>83</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I39" t="s">
         <v>97</v>
@@ -4426,12 +4426,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
         <v>98</v>
@@ -4440,7 +4440,7 @@
         <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
         <v>98</v>
@@ -4452,12 +4452,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
         <v>111</v>
@@ -4466,7 +4466,7 @@
         <v>83</v>
       </c>
       <c r="H42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I42" t="s">
         <v>91</v>
@@ -4478,12 +4478,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>113</v>
@@ -4492,7 +4492,7 @@
         <v>114</v>
       </c>
       <c r="H43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I43" t="s">
         <v>91</v>
@@ -4504,12 +4504,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E45" t="s">
         <v>115</v>
@@ -4527,12 +4527,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E46" t="s">
         <v>116</v>
@@ -4550,12 +4550,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
         <v>117</v>
@@ -4576,12 +4576,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
         <v>118</v>
@@ -4593,18 +4593,18 @@
         <v>109</v>
       </c>
       <c r="J48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
         <v>119</v>
@@ -4616,18 +4616,18 @@
         <v>91</v>
       </c>
       <c r="J49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -4639,18 +4639,18 @@
         <v>155</v>
       </c>
       <c r="J50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K50" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
         <v>121</v>
@@ -4665,18 +4665,18 @@
         <v>155</v>
       </c>
       <c r="J51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E52" t="s">
         <v>123</v>
@@ -4691,18 +4691,18 @@
         <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E53" t="s">
         <v>125</v>
@@ -4717,18 +4717,18 @@
         <v>155</v>
       </c>
       <c r="J53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K53" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
         <v>131</v>
@@ -4749,12 +4749,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
         <v>134</v>
@@ -4775,12 +4775,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E57" t="s">
         <v>136</v>
@@ -4801,12 +4801,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E58" t="s">
         <v>138</v>
@@ -4827,12 +4827,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
         <v>139</v>
@@ -4853,12 +4853,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E60" t="s">
         <v>142</v>
@@ -4879,12 +4879,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
         <v>144</v>
@@ -4920,34 +4920,34 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -4964,86 +4964,86 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>147</v>
@@ -5059,249 +5059,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="57.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.21875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="40.5546875" style="4"/>
+    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="40.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="100.9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>154</v>
@@ -5310,100 +5310,100 @@
         <v>77</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100.9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>129</v>
@@ -5412,54 +5412,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>154</v>
@@ -5468,198 +5468,198 @@
         <v>40</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="43.15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="28.9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J17" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="22.9" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="22.8" x14ac:dyDescent="0.2">
-      <c r="C18" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5667,7 +5667,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="14.45" x14ac:dyDescent="0.2">
       <c r="K24" s="4"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5676,30 +5676,30 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
       <c r="I25" s="10"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="382">
   <si>
     <t>Scherm</t>
   </si>
@@ -1204,6 +1204,9 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>De verwerking is zoals beschreven in “FO initiële gegevensDTV” </t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1296,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,9 +1309,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1346,7 +1349,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1418,7 +1421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1598,17 +1601,17 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1805,7 +1808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1986,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2045,7 +2048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>299</v>
       </c>
@@ -2115,12 +2118,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>373</v>
       </c>
@@ -2147,20 +2150,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>82</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>100</v>
       </c>
@@ -2536,7 +2539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -2576,7 +2579,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>189</v>
       </c>
@@ -2596,7 +2599,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -2911,7 +2914,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>142</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>144</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -3184,7 +3187,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3207,7 +3210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -3230,7 +3233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -3285,7 +3288,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>160</v>
       </c>
@@ -3331,7 +3334,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3371,7 +3374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -3401,25 +3404,25 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="870" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="876" topLeftCell="A16" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
       <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -3541,7 +3544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -3634,7 +3637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>231</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -3730,7 +3733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>231</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>223</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>224</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>225</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>228</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>228</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>156</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -4125,7 +4128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>230</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>237</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>182</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>182</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>182</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>182</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>182</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>182</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>182</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>197</v>
       </c>
@@ -4478,7 +4481,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>197</v>
       </c>
@@ -4504,7 +4507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>198</v>
       </c>
@@ -4527,7 +4530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>198</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>199</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>200</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>200</v>
       </c>
@@ -4622,7 +4625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>200</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>200</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>200</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>200</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>203</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>203</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>203</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>203</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>203</v>
       </c>
@@ -4853,7 +4856,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>203</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>203</v>
       </c>
@@ -4920,17 +4923,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>75</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -4998,7 +5001,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>241</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>245</v>
       </c>
@@ -5059,28 +5062,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="57.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="40.5703125" style="4"/>
+    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.5546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="40.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>312</v>
       </c>
@@ -5115,7 +5118,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>262</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="100.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="100.95" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>314</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>315</v>
       </c>
@@ -5243,7 +5246,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="86.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>319</v>
       </c>
@@ -5364,6 +5367,9 @@
       <c r="E9" s="4" t="s">
         <v>291</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>153</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="100.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>320</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>364</v>
       </c>
@@ -5442,7 +5448,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>365</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>366</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>368</v>
       </c>
@@ -5558,7 +5564,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>369</v>
       </c>
@@ -5587,7 +5593,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="28.9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="28.95" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>370</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="22.9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="22.95" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>362</v>
       </c>
@@ -5636,7 +5642,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
         <v>362</v>
       </c>
@@ -5656,10 +5662,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5667,7 +5673,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="14.45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K24" s="4"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -5676,30 +5682,30 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H25" s="6"/>
       <c r="I25" s="10"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -14,6 +14,7 @@
     <sheet name="Functies" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_Ref407429009" localSheetId="4">Functies!$L$12</definedName>
     <definedName name="_Toc411507377" localSheetId="0">Schermen!$F$25</definedName>
     <definedName name="_Toc411507378" localSheetId="0">Schermen!$F$26</definedName>
     <definedName name="_Toc411507379" localSheetId="0">Schermen!$F$6</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="391">
   <si>
     <t>Scherm</t>
   </si>
@@ -1207,6 +1208,48 @@
   </si>
   <si>
     <t>De verwerking is zoals beschreven in “FO initiële gegevensDTV” </t>
+  </si>
+  <si>
+    <t>Regels</t>
+  </si>
+  <si>
+    <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
+Invariant: geenSalarisOverlap
+Invariant: geenCategorieOverlap
+Invariant: salarisGedurendeContractduur
+Invariant: categorieGedurendeContractduur</t>
+  </si>
+  <si>
+    <t>Invariant: inRefLijstUrenpool</t>
+  </si>
+  <si>
+    <t>Invariant: resultaatSoort
+Invariant: foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>Invariant: foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>Invariant: inRefLijstUrenpool
+Invariant: head of trace 
+Invariant: attached mutations
+Invariant: Unieke naam in referentielijsten</t>
+  </si>
+  <si>
+    <t>Procesregel: Salarisschaal verplicht voor persoon</t>
+  </si>
+  <si>
+    <t>Invariant: verantwoordingsperiode;
+Invariant: batchStatus;
+Invariant: genereerSPINqueries
+Invariant: SPINresWat
+Invariant: vulPeriodeVerantwoordingen
+Invariant: berichtZonderAfzender
+Invariant: verantwoording per medewerker</t>
+  </si>
+  <si>
+    <t>Invariant: tijdlijnArbeidsmodaliteiten
+Invariant: bevriezenArbeidsmodaliteiten</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1293,6 +1336,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3403,10 +3455,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="876" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="876" topLeftCell="A40" activePane="bottomLeft"/>
       <selection sqref="A1:XFD2"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5062,9 +5114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5080,10 +5132,11 @@
     <col min="9" max="9" width="42.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="40.5546875" style="4"/>
+    <col min="12" max="12" width="40.5546875" style="12"/>
+    <col min="13" max="16384" width="40.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>312</v>
       </c>
@@ -5117,8 +5170,11 @@
       <c r="K1" s="8" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>262</v>
       </c>
@@ -5141,7 +5197,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>313</v>
       </c>
@@ -5175,8 +5231,11 @@
       <c r="K3" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="100.95" x14ac:dyDescent="0.3">
+      <c r="L3" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>314</v>
       </c>
@@ -5210,8 +5269,11 @@
       <c r="K4" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="216" x14ac:dyDescent="0.3">
+      <c r="L4" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>315</v>
       </c>
@@ -5245,8 +5307,11 @@
       <c r="K5" s="8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="L5" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>316</v>
       </c>
@@ -5281,7 +5346,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>317</v>
       </c>
@@ -5315,8 +5380,11 @@
       <c r="K7" s="8" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="L7" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>318</v>
       </c>
@@ -5351,7 +5419,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>319</v>
       </c>
@@ -5385,8 +5453,11 @@
       <c r="K9" s="8" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="L9" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>320</v>
       </c>
@@ -5417,8 +5488,11 @@
       <c r="K10" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="L10" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>364</v>
       </c>
@@ -5448,7 +5522,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>365</v>
       </c>
@@ -5476,8 +5550,11 @@
       <c r="K12" s="8" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.2">
+      <c r="L12" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="68.400000000000006" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>366</v>
       </c>
@@ -5505,8 +5582,11 @@
       <c r="K13" s="8" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="45.6" x14ac:dyDescent="0.2">
+      <c r="L13" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45.6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>367</v>
       </c>
@@ -5534,8 +5614,11 @@
       <c r="K14" s="8" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="L14" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="68.400000000000006" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>368</v>
       </c>
@@ -5563,8 +5646,11 @@
       <c r="K15" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="L15" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>369</v>
       </c>
@@ -5592,8 +5678,11 @@
       <c r="K16" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="28.95" x14ac:dyDescent="0.2">
+      <c r="L16" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>370</v>
       </c>
@@ -5621,8 +5710,11 @@
       <c r="K17" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="22.95" x14ac:dyDescent="0.2">
+      <c r="L17" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="22.8" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>362</v>
       </c>
@@ -5675,7 +5767,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="K24" s="4"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -5716,7 +5808,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="13"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="10500" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="852" yWindow="420" windowWidth="23064" windowHeight="9876" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,12 @@
     <sheet name="Functies" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_Ref407429009" localSheetId="4">Functies!$L$12</definedName>
+    <definedName name="_Ref407429009" localSheetId="4">Functies!$L$13</definedName>
     <definedName name="_Toc411507377" localSheetId="0">Schermen!$F$25</definedName>
     <definedName name="_Toc411507378" localSheetId="0">Schermen!$F$26</definedName>
     <definedName name="_Toc411507379" localSheetId="0">Schermen!$F$6</definedName>
+    <definedName name="_Toc424111341" localSheetId="4">Functies!$L$13</definedName>
+    <definedName name="_Toc424742519" localSheetId="4">Functies!$L$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="390">
   <si>
     <t>Scherm</t>
   </si>
@@ -859,10 +861,6 @@
   </si>
   <si>
     <t>De actie 'verstuur naar P-Direct' wordt niet uitgevoerd.</t>
-  </si>
-  <si>
-    <t>Gegarandeerd moet worden dat na afloop alle periodeverantwoordingen die niet de status 'verzonden' hebben, afkomstig zijn uit dezelfde batch.
-Tijdens het versturen naar P-Direct mag vernieuwing niet plaatsvinden, om volledigheid van P-Direct bestanden te kunnen garanderen.</t>
   </si>
   <si>
     <t>Er is géén periodeverantwoording met de status 'te verwerken'</t>
@@ -879,9 +877,6 @@
     <t>activeringsConditie</t>
   </si>
   <si>
-    <t>Vernieuw alle periodeverantwoordingen</t>
-  </si>
-  <si>
     <t>Het tijdstip van de klik wordt in een record opgeslagen, wat periodiek door SAS wordt uitgelezen. SAS stelt aan de hand van deze datum vast dat er nieuwe verantwoordingen klaarstaan. SAS zal de terugkoppelberichten voor medewerkers en teamleiders zelf uitlezen.</t>
   </si>
   <si>
@@ -925,12 +920,6 @@
     <t>DTV-109</t>
   </si>
   <si>
-    <t>voorverwerken</t>
-  </si>
-  <si>
-    <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de geaccordeerde dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'.</t>
-  </si>
-  <si>
     <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de definitieve dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'. De DTV-applicatie moet garanderen dat deze resultaten NIET naar P-Direkt worden verstuurd, noch enige mutatie van urentegoeden in de DTV-applicatie tot gevolg hebben.</t>
   </si>
   <si>
@@ -979,12 +968,6 @@
     <t>knop op Startpagina: Verwerk zonder opslaan</t>
   </si>
   <si>
-    <t>knop op Startpagina: Inladen geaccordeerde dagverantwoordingen</t>
-  </si>
-  <si>
-    <t>knop op Startpagina: Inladen definitieve dagverantwoordingen</t>
-  </si>
-  <si>
     <t>knop op Startpagina: Vrijgeven van feedback</t>
   </si>
   <si>
@@ -1006,9 +989,6 @@
     <t>Fie-1</t>
   </si>
   <si>
-    <t>Fie-2</t>
-  </si>
-  <si>
     <t>Fie-3</t>
   </si>
   <si>
@@ -1211,32 +1191,62 @@
   </si>
   <si>
     <t>Regels</t>
+  </si>
+  <si>
+    <t>Invariant: resultaatSoort
+Invariant: foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>Invariant: foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>Invariant: inRefLijstUrenpool
+Invariant: head of trace 
+Invariant: attached mutations
+Invariant: Unieke naam in referentielijsten</t>
+  </si>
+  <si>
+    <t>Invariant: tijdlijnArbeidsmodaliteiten
+Invariant: bevriezenArbeidsmodaliteiten</t>
   </si>
   <si>
     <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
 Invariant: geenSalarisOverlap
 Invariant: geenCategorieOverlap
 Invariant: salarisGedurendeContractduur
-Invariant: categorieGedurendeContractduur</t>
-  </si>
-  <si>
-    <t>Invariant: inRefLijstUrenpool</t>
-  </si>
-  <si>
-    <t>Invariant: resultaatSoort
-Invariant: foutvrij P-Direkt bestand</t>
-  </si>
-  <si>
-    <t>Invariant: foutvrij P-Direkt bestand</t>
+Invariant: categorieGedurendeContractduur
+Invariant: arbeidsrelatie
+Invariant: eigen beheer</t>
   </si>
   <si>
     <t>Invariant: inRefLijstUrenpool
-Invariant: head of trace 
-Invariant: attached mutations
-Invariant: Unieke naam in referentielijsten</t>
-  </si>
-  <si>
-    <t>Procesregel: Salarisschaal verplicht voor persoon</t>
+Invariant: eigen beheer</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Inladen definitieve dagverantwoordingen
+en knop inladen geaccordeerde dagverantwoordingen</t>
+  </si>
+  <si>
+    <t>inladen dagverantwoordingen</t>
+  </si>
+  <si>
+    <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
+Invariant: geenSalarisOverlap
+Invariant: geenCategorieOverlap
+Invariant: salarisGedurendeContractduur
+Invariant: categorieGedurendeContractduur
+Invariant: bevriezenMedewerkersrechten
+Invariant: arbeidsrelatie</t>
+  </si>
+  <si>
+    <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
+Invariant: geenSalarisOverlap
+Invariant: geenCategorieOverlap
+Invariant: salarisGedurendeContractduur
+Invariant: categorieGedurendeContractduur
+Invariant: bevriezenMedewerkersrechten
+Invariant: arbeidsrelatie
+Invariant: eigen beheer</t>
   </si>
   <si>
     <t>Invariant: verantwoordingsperiode;
@@ -1245,11 +1255,18 @@
 Invariant: SPINresWat
 Invariant: vulPeriodeVerantwoordingen
 Invariant: berichtZonderAfzender
-Invariant: verantwoording per medewerker</t>
-  </si>
-  <si>
-    <t>Invariant: tijdlijnArbeidsmodaliteiten
-Invariant: bevriezenArbeidsmodaliteiten</t>
+Invariant: verantwoording per medewerker
+Invariant: identificeerPeriodeverantwoording</t>
+  </si>
+  <si>
+    <t>Procesregel: Salarisschaal verplicht voor medewerker
+Invariant: eigen beheer</t>
+  </si>
+  <si>
+    <t>Corrigeren medewerker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indien er verantwoordingen worden geleverd met personeelsnummers die in de administratie van DTV nog niet voorkomen, dan dient er een nieuw personeelsnummer te worden aangemaakt. Indien bij deze aanlevering al een naam bekend is, dan wordt die hierin overgenomen. Hierdoor (en ook mogelijk andere manieren) kan het daardoor ontstaan, dat er medewerkers ontstaan, waarvoor geen salaris- en categorie is geregistreerd. </t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1325,17 +1342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1345,6 +1353,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1714,7 +1725,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1734,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1900,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -2009,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>28</v>
@@ -2155,7 +2166,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -2164,29 +2175,29 @@
         <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -2622,13 +2633,13 @@
         <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G19" t="s">
         <v>90</v>
       </c>
       <c r="H19" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2642,13 +2653,13 @@
         <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G20" t="s">
         <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3616,13 +3627,13 @@
         <v>190</v>
       </c>
       <c r="I5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J5" t="s">
         <v>217</v>
       </c>
       <c r="K5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3645,13 +3656,13 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="J6" t="s">
         <v>217</v>
       </c>
       <c r="K6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4999,7 +5010,7 @@
         <v>259</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -5112,11 +5123,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5131,47 +5142,47 @@
     <col min="8" max="8" width="19.5546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="42.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="40.5546875" style="12"/>
+    <col min="11" max="11" width="9.33203125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="49.109375" style="9" customWidth="1"/>
     <col min="13" max="16384" width="40.5546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>263</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>171</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>382</v>
+        <v>315</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -5191,185 +5202,150 @@
         <v>166</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>266</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>389</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>265</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>385</v>
+        <v>317</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>154</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>331</v>
+        <v>318</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>154</v>
@@ -5377,37 +5353,37 @@
       <c r="J7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>386</v>
+      <c r="K7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="E8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>201</v>
@@ -5415,334 +5391,328 @@
       <c r="J8" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="K8" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>383</v>
+      <c r="K9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>2</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>390</v>
+      <c r="L10" s="9" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>339</v>
+        <v>357</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E11" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="G11" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="68.400000000000006" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="4" t="s">
         <v>344</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>326</v>
+        <v>154</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45.6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="102.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>355</v>
+        <v>371</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>351</v>
+      <c r="H14" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="68.400000000000006" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H16" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="8" t="s">
+      <c r="C18" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="J18" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="22.8" x14ac:dyDescent="0.2">
-      <c r="C18" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>286</v>
+      <c r="H19" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>201</v>
@@ -5750,71 +5720,91 @@
       <c r="J19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K22" s="4"/>
+      <c r="K19" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
       <c r="K23" s="4"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H25" s="6"/>
-      <c r="I25" s="10"/>
       <c r="K25" s="4"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H26" s="6"/>
+      <c r="I26" s="11"/>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K29" s="4"/>
+      <c r="K29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -14,11 +14,11 @@
     <sheet name="Functies" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_Ref407429009" localSheetId="4">Functies!$L$13</definedName>
+    <definedName name="_Ref407429009" localSheetId="4">Functies!$L$14</definedName>
     <definedName name="_Toc411507377" localSheetId="0">Schermen!$F$25</definedName>
     <definedName name="_Toc411507378" localSheetId="0">Schermen!$F$26</definedName>
     <definedName name="_Toc411507379" localSheetId="0">Schermen!$F$6</definedName>
-    <definedName name="_Toc424111341" localSheetId="4">Functies!$L$13</definedName>
+    <definedName name="_Toc424111341" localSheetId="4">Functies!$L$14</definedName>
     <definedName name="_Toc424742519" localSheetId="4">Functies!$L$4</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="392">
   <si>
     <t>Scherm</t>
   </si>
@@ -1267,6 +1267,12 @@
   </si>
   <si>
     <t xml:space="preserve">Indien er verantwoordingen worden geleverd met personeelsnummers die in de administratie van DTV nog niet voorkomen, dan dient er een nieuw personeelsnummer te worden aangemaakt. Indien bij deze aanlevering al een naam bekend is, dan wordt die hierin overgenomen. Hierdoor (en ook mogelijk andere manieren) kan het daardoor ontstaan, dat er medewerkers ontstaan, waarvoor geen salaris- en categorie is geregistreerd. </t>
+  </si>
+  <si>
+    <t>Beheren arbeidsmodaliteiten</t>
+  </si>
+  <si>
+    <t>het muteren van arbeidsmodaliteiten van een specifieke medewerker</t>
   </si>
 </sst>
 </file>
@@ -5123,11 +5129,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5395,7 +5401,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>312</v>
       </c>
@@ -5468,190 +5474,182 @@
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>357</v>
-      </c>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>332</v>
+        <v>371</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>391</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="G11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="I11" s="4" t="s">
         <v>319</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="G12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="13" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E13" s="11"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="102.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>337</v>
+      <c r="H14" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>319</v>
+        <v>154</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="45.6" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="102.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>348</v>
+        <v>371</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>344</v>
+      <c r="H15" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>319</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>330</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="91.2" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>153</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>319</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="45.6" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>153</v>
@@ -5663,76 +5661,88 @@
         <v>319</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>331</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="45.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="22.8" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>201</v>
@@ -5741,70 +5751,90 @@
         <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K24" s="4"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H27" s="6"/>
+      <c r="I27" s="11"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1152" yWindow="468" windowWidth="23064" windowHeight="9876"/>
+    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
-    <sheet name="Interfaces 10 juni" sheetId="2" r:id="rId2"/>
-    <sheet name="Gewenste Transacties" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabbladen" sheetId="4" r:id="rId4"/>
-    <sheet name="Functies" sheetId="5" r:id="rId5"/>
+    <sheet name="Functies" sheetId="5" r:id="rId2"/>
+    <sheet name="Interfaces 10 juni" sheetId="2" r:id="rId3"/>
+    <sheet name="Gewenste Transacties" sheetId="3" r:id="rId4"/>
+    <sheet name="Tabbladen" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_Ref407429009" localSheetId="4">Functies!$L$14</definedName>
+    <definedName name="_Ref407429009" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Toc411507377" localSheetId="0">Schermen!$G$32</definedName>
     <definedName name="_Toc411507378" localSheetId="0">Schermen!$G$35</definedName>
     <definedName name="_Toc411507379" localSheetId="0">Schermen!$G$11</definedName>
-    <definedName name="_Toc424111341" localSheetId="4">Functies!$L$14</definedName>
-    <definedName name="_Toc424742519" localSheetId="4">Functies!$L$4</definedName>
+    <definedName name="_Toc424111341" localSheetId="1">Functies!#REF!</definedName>
+    <definedName name="_Toc424742519" localSheetId="1">Functies!#REF!</definedName>
+    <definedName name="_Toc425770051" localSheetId="1">Functies!$D$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="455">
   <si>
     <t>Scherm</t>
   </si>
@@ -74,9 +75,6 @@
     <t>DTV9012</t>
   </si>
   <si>
-    <t>aangeroepen vanuit</t>
-  </si>
-  <si>
     <t>DTV1000</t>
   </si>
   <si>
@@ -104,9 +102,6 @@
     <t>DTV5000</t>
   </si>
   <si>
-    <t>navigatie</t>
-  </si>
-  <si>
     <t>DTV1010</t>
   </si>
   <si>
@@ -212,9 +207,6 @@
     <t>lijst van periodeverantwoordingen</t>
   </si>
   <si>
-    <t>rol</t>
-  </si>
-  <si>
     <t>FAB</t>
   </si>
   <si>
@@ -257,12 +249,6 @@
     <t>6.10 Overzicht medewerkerresultaat</t>
   </si>
   <si>
-    <t>FO</t>
-  </si>
-  <si>
-    <t>&amp; Interface</t>
-  </si>
-  <si>
     <t>Transaction</t>
   </si>
   <si>
@@ -824,9 +810,6 @@
     <t>er bestaan periodeverantwoordingen met status 'uitval'</t>
   </si>
   <si>
-    <t>Verstuur naar P-Direct</t>
-  </si>
-  <si>
     <t>Actie</t>
   </si>
   <si>
@@ -837,9 +820,6 @@
   </si>
   <si>
     <t>Stuur elk van de periodeverantwoordingen met de status 'te verwerken' door de kennismotor. (de status van elk van die periodeverantwoordingen verandert daardoor in 'te corrigeren' of 'te verzenden'.</t>
-  </si>
-  <si>
-    <t>De actie 'verstuur naar P-Direct' wordt niet uitgevoerd.</t>
   </si>
   <si>
     <t>Er is géén periodeverantwoording met de status 'te verwerken'</t>
@@ -859,10 +839,6 @@
     <t>Het tijdstip van de klik wordt in een record opgeslagen, wat periodiek door SAS wordt uitgelezen. SAS stelt aan de hand van deze datum vast dat er nieuwe verantwoordingen klaarstaan. SAS zal de terugkoppelberichten voor medewerkers en teamleiders zelf uitlezen.</t>
   </si>
   <si>
-    <t>Maak een P-Direct bestand aan, waarin alle periodeverantwoordingen worden verwerkt met de status 'te verzenden'. Die periodeverantwoordingen krijgen de status 'verzonden'. Muteer tevens de urentegoeden conform de toelageresultaten. Van belang is dat elke periodeverantwoording in z'n geheel volledig wordt verwerkt. Het mag bijvoorbeeld niet voorkomen dat er toelageresultaten uit een periodeverantwoording naar P-Direkt gaan, terwijl de mutaties van urentegoeden vanuit diezelfde verantwoording niet verwerkt zijn.
-Verwijder aansluitend alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit de overzichten in het startscherm, maar laat ze bestaan in de DTV-applicatie zodat SAS erbij kan. Ze worden pas verwijderd bij de volgende keer dat KNOP-1 wordt gebruikt.</t>
-  </si>
-  <si>
     <t>Het consistent zijn van elke periodeverantwoording is van belang, zodat SAS altijd interpreteerbare gegevens ophaalt.</t>
   </si>
   <si>
@@ -875,9 +851,6 @@
     <t>Vrijgeven voor datawarehouse</t>
   </si>
   <si>
-    <t>berekening</t>
-  </si>
-  <si>
     <t>Achter de hyperlink bestaat er een Excel-bestand</t>
   </si>
   <si>
@@ -899,21 +872,12 @@
     <t>DTV-109</t>
   </si>
   <si>
-    <t>Verwijder alle periodeverantwoordingen die NIET de status 'verzonden' hebben, inclusief bijbehorende resultaten, uit DTV. Haal daarna de nieuwe batch op uit SPIN met daarin de definitieve dagverantwoordingen, verdeel ze in periodeverantwoordingen en zet de status daarvan op 'te verwerken'. De DTV-applicatie moet garanderen dat deze resultaten NIET naar P-Direkt worden verstuurd, noch enige mutatie van urentegoeden in de DTV-applicatie tot gevolg hebben.</t>
-  </si>
-  <si>
     <t>Er is tenminste één periodeverantwoording met de status 'te verwerken', en er is geen upload van P-Direktgegevens aan de gang.</t>
   </si>
   <si>
-    <t>De actie 'verstuur naar P-Direct' is niet in uitvoering en er is geen verwerking door de kennismotor aan de gang.</t>
-  </si>
-  <si>
     <t>lees medewerkerrechten in</t>
   </si>
   <si>
-    <t xml:space="preserve">Lees van het aangeboden .xls-bestand de kolommen </t>
-  </si>
-  <si>
     <t>DTV-86</t>
   </si>
   <si>
@@ -926,24 +890,15 @@
     <t>-</t>
   </si>
   <si>
-    <t>Lees van het aangeboden .xls-bestand de kolommen Personeelsnummer, maandag, dinsdag, woensdag, donderdag, vrijdag, maandag, dinsdag, woensdag, donderdag, vrijdag en gebruik deze informatie voor het verrijken van dagverantwoordingen in elke periodebatch, totdat een nieuw .xls-bestand deze informatie overschrijft.</t>
-  </si>
-  <si>
     <t>P&amp;O, FAB</t>
   </si>
   <si>
     <t>Beheer &gt;  Arbeidsmodaliteiten Import</t>
   </si>
   <si>
-    <t>knop op Startpagina: Verwerk zonder opslaan</t>
-  </si>
-  <si>
     <t>knop op Startpagina: Vrijgeven van feedback</t>
   </si>
   <si>
-    <t>knop op Startpagina: Verstuur naar P-Direct</t>
-  </si>
-  <si>
     <t>uiterlijk</t>
   </si>
   <si>
@@ -1037,15 +992,6 @@
     <t>het muteren van urentegoeden</t>
   </si>
   <si>
-    <t>het muteren van medewerkerrechten</t>
-  </si>
-  <si>
-    <t>het opvoeren van nieuwe medewerkers met hun categorie en salarisschaal</t>
-  </si>
-  <si>
-    <t>wijzig medewerkerrechten</t>
-  </si>
-  <si>
     <t>DTV-113</t>
   </si>
   <si>
@@ -1079,27 +1025,15 @@
     <t xml:space="preserve">het beheren van referentielijsten (stamtabellen) door een functioneel beheerder (FAB) </t>
   </si>
   <si>
-    <t xml:space="preserve">het corrigeren met terugwerkende kracht van individuele registraties van urentegoeden en medewerkerrechten, wanneer administratieve fouten in het verleden dat noodzakelijk maken </t>
-  </si>
-  <si>
     <t>FO-initiële gegevens</t>
   </si>
   <si>
     <t xml:space="preserve">corrigeer TWK urentegoed </t>
   </si>
   <si>
-    <t>upload urentegoeden</t>
-  </si>
-  <si>
     <t>het corrigeren met terugwerkende kracht van alle registraties van medewerkerrechten vanaf een bepaalde datum door het inlezen van een Excel-bestand met de correcte gegevens.</t>
   </si>
   <si>
-    <t>het corrigeren met terugwerkende kracht van alle registraties van urentegoeden vanaf een bepaalde datum door het inlezen van een Excel-bestand met de correcte gegevens.</t>
-  </si>
-  <si>
-    <t>upload medewerkerrechten</t>
-  </si>
-  <si>
     <t>via SAS</t>
   </si>
   <si>
@@ -1130,7 +1064,7 @@
     <t>muteer stamgegevens</t>
   </si>
   <si>
-    <t xml:space="preserve">Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot verwerking in DTV of P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken. Zolang er definitieve dagverantwoordingen in de periodebatch zitten,  is de knop "verstuur naar P-Direkt" niet aanwezig in de applicatie. </t>
+    <t>DTV9025</t>
   </si>
   <si>
     <t>Beheer &gt; Urentegoeden</t>
@@ -1148,94 +1082,16 @@
     <t>Account</t>
   </si>
   <si>
-    <t>De verwerking is zoals beschreven in “FO initiële gegevensDTV” </t>
-  </si>
-  <si>
     <t>Regels</t>
-  </si>
-  <si>
-    <t>Invariant: resultaatSoort
-Invariant: foutvrij P-Direkt bestand</t>
-  </si>
-  <si>
-    <t>Invariant: foutvrij P-Direkt bestand</t>
-  </si>
-  <si>
-    <t>Invariant: inRefLijstUrenpool
-Invariant: head of trace 
-Invariant: attached mutations
-Invariant: Unieke naam in referentielijsten</t>
-  </si>
-  <si>
-    <t>Invariant: tijdlijnArbeidsmodaliteiten
-Invariant: bevriezenArbeidsmodaliteiten</t>
-  </si>
-  <si>
-    <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
-Invariant: geenSalarisOverlap
-Invariant: geenCategorieOverlap
-Invariant: salarisGedurendeContractduur
-Invariant: categorieGedurendeContractduur
-Invariant: arbeidsrelatie
-Invariant: eigen beheer</t>
-  </si>
-  <si>
-    <t>Invariant: inRefLijstUrenpool
-Invariant: eigen beheer</t>
   </si>
   <si>
     <t>knop op Startpagina: Inladen definitieve dagverantwoordingen
 en knop inladen geaccordeerde dagverantwoordingen</t>
   </si>
   <si>
-    <t>inladen dagverantwoordingen</t>
-  </si>
-  <si>
-    <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
-Invariant: geenSalarisOverlap
-Invariant: geenCategorieOverlap
-Invariant: salarisGedurendeContractduur
-Invariant: categorieGedurendeContractduur
-Invariant: bevriezenMedewerkersrechten
-Invariant: arbeidsrelatie</t>
-  </si>
-  <si>
-    <t>Invariant: Ingangsdatum verplicht in medewerkerRecht
-Invariant: geenSalarisOverlap
-Invariant: geenCategorieOverlap
-Invariant: salarisGedurendeContractduur
-Invariant: categorieGedurendeContractduur
-Invariant: bevriezenMedewerkersrechten
-Invariant: arbeidsrelatie
-Invariant: eigen beheer</t>
-  </si>
-  <si>
-    <t>Invariant: verantwoordingsperiode;
-Invariant: batchStatus;
-Invariant: genereerSPINqueries
-Invariant: SPINresWat
-Invariant: vulPeriodeVerantwoordingen
-Invariant: berichtZonderAfzender
-Invariant: verantwoording per medewerker
-Invariant: identificeerPeriodeverantwoording</t>
-  </si>
-  <si>
-    <t>Procesregel: Salarisschaal verplicht voor medewerker
-Invariant: eigen beheer</t>
-  </si>
-  <si>
-    <t>Corrigeren medewerker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indien er verantwoordingen worden geleverd met personeelsnummers die in de administratie van DTV nog niet voorkomen, dan dient er een nieuw personeelsnummer te worden aangemaakt. Indien bij deze aanlevering al een naam bekend is, dan wordt die hierin overgenomen. Hierdoor (en ook mogelijk andere manieren) kan het daardoor ontstaan, dat er medewerkers ontstaan, waarvoor geen salaris- en categorie is geregistreerd. </t>
-  </si>
-  <si>
     <t>Beheren arbeidsmodaliteiten</t>
   </si>
   <si>
-    <t>het muteren van arbeidsmodaliteiten van een specifieke medewerker</t>
-  </si>
-  <si>
     <t>Startpagina &gt; te verwerken</t>
   </si>
   <si>
@@ -1308,9 +1164,6 @@
     <t>Overzichten &gt; Medewerker Rechten &gt; [uitklaptabel op DTV5010]</t>
   </si>
   <si>
-    <t>Naam</t>
-  </si>
-  <si>
     <t>te verwerken</t>
   </si>
   <si>
@@ -1402,26 +1255,259 @@
   </si>
   <si>
     <t>lijst van variables</t>
+  </si>
+  <si>
+    <t>Ophalen periodebatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deze functie betreft het ophalen van alle dagverantwoordingen uit SPIN, die een combinatie van datum en personeelsnummer hebben, waarvoor nog geen periodeverantwoording naar P-Direkt is verstuurd. Deze functie kent twee varianten:
+variant A: uitsluitend geaccordeerde dagverantwoordingen, en
+variant D: alle definitief gemaakte dagverantwoordingen.
+Merk op dat variant A een deelverzameling is van variant D. In de verwerking ervan is het enige verschil dat verzending naar P-Direkt en uitvoering van urenmutaties alleen mag plaatsvinden bij variant A (functie 6.4 Verstuur naar P-Direkt). Voor het overige verloopt de verwerking identiek.
+De verwerking verloopt als volgt.
+Om te beginnen worden alle periodeverantwoordingen in de DTV-applicatie die niet verzonden zijn, verwijderd, inclusief bijbehorende resultaten. Daarmee ontstaat een lege batch.
+Vervolgens wordt de query naar SPIN uitgevoerd, waardoor de dagverantwoordingen (in variant A dan wel D) in de DTV-applicatie worden geladen.
+Daarna worden arbeidsmodaliteiten toegevoegd aan de dagverantwoordingen en worden de batch gepartitioneerd in periodeverantwoordingen: alle dagverantwoordingen van één personeelsnummer in dezelfde verantwoordingsperiode worden in één periodeverantwoording bijeengebracht. Vanaf dat moment wordt de verwerking op hele periodeverantwoordingen uitgevoerd.
+Nu worden de periodeverantwoordingen gecheckt. Als er voor een dag d met modaliteit&gt;0 en personeelsnummer p geen dagverantwoording aanwezig is in een periodeverantwoording, dan krijgt deze periodeverantwoording de status “te corrigeren” gezet (en gaat dus niet naar de kennismotor). De overige periodeverantwoordingen krijgen de status “te verwerken”.
+Een dag, waarvoor geen modaliteit is geregistreerd wordt beschouwd als modaliteit=0. Let op: In het onwaarschijnlijke geval, dat er uit SPIN een dagverantwoording komt die op basis van zijn datum en persoonsnummer hoort bij een periodeverantwoording die al bestaat in DTV, en die de status ‘verzonden’ heeft, dan mag die dagverantwoording niet worden verwerkt, maar moet tot een harde fout leiden. Er is dan in het proces iets mis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot het muteren van urentegoeden in de DTV-applicatie, dan wel verzenden van toelagen naar P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken. Zolang er definitieve dagverantwoordingen in de periodebatch zitten, is de knop "verstuur naar P-Direkt" niet aanwezig in de applicatie.
+Gegarandeerd moet worden dat na afloop alle periodeverantwoordingen die niet de status 'verzonden' hebben, afkomstig zijn uit dezelfde batch. Tijdens het versturen naar P-Direkt mag vernieuwing niet plaatsvinden, om volledigheid van P-Direkt bestanden te kunnen garanderen.
+</t>
+  </si>
+  <si>
+    <t>DTV-107, DTV-109</t>
+  </si>
+  <si>
+    <t>verantwoordingsperiode, batchStatus, genereerSPINqueries, SPINresWat, vulPeriodeVerantwoordingen, berichtZonderAfzender, verantwoording per medewerker, identificeerPeriodeverantwoording</t>
+  </si>
+  <si>
+    <t>resultaatSoort, foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie</t>
+  </si>
+  <si>
+    <t>tijdlijnArbeidsmodaliteiten, bevriezenArbeidsmodaliteiten</t>
+  </si>
+  <si>
+    <t>inRefLijstUrenpool, eigen beheer</t>
+  </si>
+  <si>
+    <t>Salarisschaal verplicht voor medewerker, eigen beheer</t>
+  </si>
+  <si>
+    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie, eigen beheer</t>
+  </si>
+  <si>
+    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, arbeidsrelatie, eigen beheer</t>
+  </si>
+  <si>
+    <t>inRefLijstUrenpool, head of trace, attached mutations, Unieke naam in referentielijsten</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Berekenen</t>
+  </si>
+  <si>
+    <t>De actie 'verstuur naar P-Direkt' wordt niet uitgevoerd.</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Verstuur naar P-Direkt</t>
+  </si>
+  <si>
+    <t>Verstuur naar P-Direkt</t>
+  </si>
+  <si>
+    <t>De actie 'verstuur naar P-Direkt' is niet in uitvoering en er is geen verwerking door de kennismotor aan de gang.</t>
+  </si>
+  <si>
+    <t>Maak een P-Direkt bestand aan, waarin alle periodeverantwoordingen worden verwerkt met de status 'te verzenden'. Die periodeverantwoordingen krijgen de status 'verzonden'. Muteer tevens de urentegoeden conform de toelageresultaten. Van belang is dat elke periodeverantwoording in z'n geheel volledig wordt verwerkt. Het mag bijvoorbeeld niet voorkomen dat er toelageresultaten uit een periodeverantwoording naar P-Direkt gaan, terwijl de mutaties van urentegoeden vanuit diezelfde verantwoording niet verwerkt zijn.
+Verwijder aansluitend alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit de overzichten in het startscherm, maar laat ze bestaan in de DTV-applicatie zodat SAS erbij kan. Ze worden pas verwijderd bij de volgende keer dat er gegevens uit SPIN worden opgehaald.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er is géén periodeverantwoording met de status 'te verwerken' EN 
+er is tenminste één periodeverantwoording met de status ‘te verzenden’ EN 
+de laatste keer dat er gegevens uit SPIN zijn opgehaald werd variant A gebruikt (de variant waarbij geaccordeerde dagverantwoordingen zijn opgehaald). 
+</t>
+  </si>
+  <si>
+    <t>Berekening</t>
+  </si>
+  <si>
+    <t>Fie-2</t>
+  </si>
+  <si>
+    <t>Fie-16</t>
+  </si>
+  <si>
+    <t>Fie-17</t>
+  </si>
+  <si>
+    <t>Via een Excel-spreadsheet in .csv-formaat leest de DTV-applicatie gegevens over rechten en urentegoeden in. Dit wordt gebruikt om de database initieel te vullen  met de knop “bulk import”.
+Wanneer een spreadsheet niet leesbaar is, antwoordt het systeem met een foutmelding waarin alle op dat moment verwachte attributen in een juiste volgorde worden opgesomd.
+In de beschrijving hieronder is op verschillende plekken sprake van “in de output melding maken”. Al deze meldingen worden in een lijst samengebracht en als output aan de gebruiker gepresenteerd. De eis hieraan is dat eventuele fouten door de gebruiker met de hand kunnen worden hersteld op basis van deze output. Daarom moet van elk record, wat vernietigd wordt, alle attributen in de output worden opgenomen.
+Van elke rij in de tabel wordt in de DTV-applicatie opgenomen:
+1. personeelsnummer
+Dit bestaat uit maximaal 8 cijfers, conform de systematiek van P-Direkt. Dit gegeven wordt gebruikt om de juiste persoon te selecteren, zodat medewerkerrechten en urentegoeden in deze rij aan de juiste persoon kunnen worden gekoppeld.
+2. volledigenaam
+Dit is een string. Als deze naam overeenkomt met een bekende persoon, wordt dit genegeerd. Wanneer het personeelsnummer onbekend is in DTV, wordt een nieuw personeelsnummer gemaakt met het veld (volledigenaam) erbij
+Wanneer het personeelsnummer bekend is, maar de naam verschilt, wordt de nieuwe naam opgeslagen en een melding gemaakt van het verschil.
+3. begindatum
+Interpretatie: dd-mm-yyyy. Deze datum wordt opgeslagen als begindatum van elk medewerkerrecht dat vanuit deze rij wordt aangemaakt. Deze datum wordt opgeslagen als attribuut “vanaf” van elk urentegoed dat vanuit deze rij wordt aangemaakt.
+4. einddatum 
+Interpretatie: dd-mm-yyyy. Deze datum wordt opgeslagen als einddatum van elk medewerkerrecht dat vanuit deze rij wordt aangemaakt.
+5. Salarisschaal
+een tekst van maximaal twee tekens. Er wordt een nieuw medewerkerrecht gemaakt, waarvan het attribuut “recht” wordt gevuld met het woord “salarisschaal”  aangevuld met de twee tekens uit deze cel.
+6. Categorie
+een tekst van maximaal twee tekens. Er wordt een nieuw medewerkerrecht gemaakt, waarvan het attribuut “recht” wordt gevuld met het woord “categorie”  aangevuld met de twee tekens uit deze cel.
+7. persoonlijke meeruren
+een geheel getal (u), eventueel gevolgd door een komma en een geheel getal (m). Het getal u representeert het aantal persoonlijke meeruren dat de betreffende medewerker vanaf de begindatum tegoed heeft. Het getal m representeert het aantal minuten dat de betreffende medewerker daar bovenop tegoed heeft. Het aantal minuten is altijd 15, 30 of 45.
+Er wordt een nieuw urentegoed-record gemaakt met de volgende attributen:
+a. medewerker: de persoon die hoort bij het personeelsnummer uit de eerste kolom.
+b. urenpool: “Persoonlijke meeruren”
+c. tegoed: het urentegoed uit deze cel
+d. vanaf: de begindatum uit deze rij
+8. overwerksaldo 
+een geheel getal (u), eventueel gevolgd door een komma en een geheel getal (m). Het getal u representeert het aantal uren dat de betreffende medewerker t.b.v. overwerk in opdracht vanaf de begindatum tegoed heeft. Het getal m representeert het aantal minuten dat de betreffende medewerker daar bovenop tegoed heeft. Het aantal minuten is altijd 15, 30 of 45.
+Er wordt een nieuw urentegoed-record gemaakt met de volgende attributen:
+a. medewerker: de persoon die hoort bij het personeelsnummer uit de eerste kolom.
+b. urenpool: “Overwerkverlof”
+c. tegoed: het urentegoed uit deze cel
+d. vanaf: de begindatum uit deze rij
+9. overwerk volledig uitbetalen
+Als deze cel het karakter ‘J’ bevat, wordt een nieuw medewerkerrecht-record gemaakt met als recht: “Overwerk volledig uitbetalen”.
+10. tod
+Als deze cel het karakter ‘J’ bevat, wordt een nieuw medewerkerrecht-record gemaakt met als recht: “Vaste toelage onregelmatige dienst”.
+11. beschikbaarheidsuren 
+Als deze cel het karakter ‘J’ bevat, wordt een nieuw medewerkerrecht-record gemaakt met als recht: “Vaste toelage bereik- en beschikbaarheidsdienst”.
+12. verschovenuren 
+Als deze cel het karakter ‘J’ bevat, wordt een nieuw medewerkerrecht-record gemaakt met als recht: “Vaste toelage verschoven uren”.
+13. afbouwtoelage 
+Als deze cel het karakter ‘J’ bevat, wordt een nieuw medewerkerrecht-record gemaakt met als recht: “Toelage afbouw onregelmatige dienst”.
+Daarmee is de verwerking nog niet teneinde, want het kan zijn dat er invarianten worden overtreden. Om dat te voorkomen moet het volgende gebeuren:
+1. Als een medewerkerrecht met recht “salarisschaal&lt;n&gt;” en begindatum b is gemaakt voor een persoon p, dan worden alle opgeslagen medewerkerrechten van diezelfde persoon met “salarisschaal&lt;m&gt;” en begindatum &gt;= b vernietigd. Van het vernietigen wordt in de output melding gemaakt.
+2. Als een medewerkerrecht met recht “salarisschaal&lt;n&gt;” en begindatum b is gemaakt voor een persoon p, dan past het systeem alle opgeslagen medewerkerrechten van diezelfde persoon met “salarisschaal&lt;m&gt;” en (einddatum &gt;= b of de einddatum is leeg) aan. De einddatum van zulke medewerkerrechten wordt op b-1 gezet.
+3. Als een medewerkerrecht met recht “categorie&lt;n&gt;” en begindatum b is gemaakt voor een persoon p, dan worden alle opgeslagen medewerkerrechten van diezelfde persoon met “categorie &lt;m&gt;” en begindatum &gt;= b vernietigd. Van het vernietigen wordt in de output melding gemaakt.
+4. Als een medewerkerrecht met recht “categorie &lt;n&gt;” en begindatum b is gemaakt voor een persoon p, dan past het systeem alle opgeslagen medewerkerrechten van diezelfde persoon met “categorie &lt;m&gt;” en (einddatum &gt;= b of de einddatum is leeg) aan. De einddatum van zulke medewerkerrechten wordt op b-1 gezet.
+5. Als een medewerkerrecht met een ander recht dan categorie of salarisschaal, en met begindatum b is gemaakt voor een persoon p, dan worden alle opgeslagen medewerkerrechten van diezelfde persoon met hetzelfde recht en begindatum &gt;= b vernietigd. Van het vernietigen wordt in de output melding gemaakt.
+6. Als een medewerkerrecht met een ander recht dan categorie of salarisschaal, en met begindatum b is gemaakt voor een persoon p, dan past het systeem alle opgeslagen medewerkerrechten van diezelfde persoon met hetzelfde recht en (einddatum &gt;= b of de einddatum is leeg) aan. De einddatum van zulke medewerkerrechten wordt op d-1 gezet.
+7. Als een urentegoed met urenpool p en vanaf-datum d is gemaakt voor een persoon p, dan vernietigt het systeem alle opgeslagen urentegoeden van diezelfde persoon met dezelfde urenpool en vanaf-datum &gt;= d. Van het vernietigen wordt in de output melding gemaakt.</t>
+  </si>
+  <si>
+    <t>Dit is nodig om het systeem initieel te vullen, maar zal in de toekomst ook nodig zijn om meervoudige mutaties uit te voeren (bulk/batch).</t>
+  </si>
+  <si>
+    <t>Arbeidsmodaliteiten worden via een Excel-bestand ingeladen uit P-Direkt. Dit bestand, bijvoorbeeld “a1000361014 - adhoc - Roosters - NVWA – aanlevering.xlsx” wordt periodiek door P-Direkt aan P&amp;O aangeleverd, dus is het van belang dat dit bestand zonder verdere bewerking direkt door P&amp;O kan worden ingelezen. Een P&amp;O-medewerker bepaalt zelf wanneer hij arbeidsmodaliteiten in de DTV-applicatie inleest. Daarmee is de P&amp;O-medewerker zelf verantwoordelijk voor het actueel zijn van gegevens uit P-Direkt.
+Vanwege het zorgvuldig omgaan met persoonsgegevens, beperkt het kopieren zich tot gegevens, die binnen DTV strikt noodzakelijk zijn.</t>
+  </si>
+  <si>
+    <t>Omdat het bestand vanuit P-Direkt zonder verdere bewerking wordt gebruikt, dient de DTV-applicatie een aantal kolommen uit dit bestand te negeren.</t>
+  </si>
+  <si>
+    <t>Bij het opvoeren van een nieuwe medewerker wordt een nieuw personeelsnummer met bijbeorende naam geregistreerd in DTV.
+Wanneer dit gebeurt vanuit een scherm, dan wordt direct genavigeerd naar het scherm waarmee medewerkersrechten van de nieuwe medewerker kan worden beheerd. Hierdoor is de gebruiker in staat om direct de salarisschaal, categorie, en arbeismodaliteit van de nieuwe medewerker in te vullen.</t>
+  </si>
+  <si>
+    <t>Beheer medewerkerrechten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De medewerker bestaat </t>
+  </si>
+  <si>
+    <t>het aanmaken, verwijderen en muteren van medewerkerrechten</t>
+  </si>
+  <si>
+    <t>Het verwijderen, wijzigen en toevoegen van arbeidsmodaliteiten van een specifieke medewerker</t>
+  </si>
+  <si>
+    <t>Normaal gesproken mogen medewerkerrechten in het verleden niet meer worden aangepast. In uitzonderlijke situaties is het echter noodzakelijk om toch correcties door te voeren op gegevens uit het verleden. De applicatie laat de controle hierop dan lost. Uitgangspunt is dat de P&amp;O medewerker die deze correcties uitvoert, de consequenties kan overzien en daarvoor de verantwoordelijkheid kan dragen.</t>
+  </si>
+  <si>
+    <t>het corrigeren met terugwerkende kracht van individuele registraties van urentegoeden en medewerkerrechten, wanneer administratieve fouten in het verleden dat noodzakelijk maken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload urentegoeden en medewerkerrechten </t>
+  </si>
+  <si>
+    <t>DTV-170</t>
+  </si>
+  <si>
+    <t>muteer rolgegevens</t>
+  </si>
+  <si>
+    <t>het toekennen van een rol aan een account door een functioneel beheerder (FAB)</t>
+  </si>
+  <si>
+    <t>DTV9040, DTV9050</t>
+  </si>
+  <si>
+    <t>DTV9011, DTV9012, DTV9013, DTV9015</t>
+  </si>
+  <si>
+    <t>DTV9010, DTV9011, DTV9012, DTV9013, DTV9015</t>
+  </si>
+  <si>
+    <t>DTV9010, DTV9014</t>
+  </si>
+  <si>
+    <t>DTV9030, DTV9033</t>
+  </si>
+  <si>
+    <t>DTV5021, DTV1011</t>
+  </si>
+  <si>
+    <t>DTV1010, DTV1020, DTV1030</t>
+  </si>
+  <si>
+    <t>DTV1000, DTV1010, DTV1020, DTV1030</t>
+  </si>
+  <si>
+    <t>DTV1000, DTV1010, DTV1020, DTV1030, DTV1040</t>
+  </si>
+  <si>
+    <t>[Scherm]</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>nav~</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>,Rol</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>funcSpec</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>,Scherm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1444,10 +1530,9 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1458,7 +1543,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1466,24 +1551,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1496,22 +1570,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1806,16 +1872,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
@@ -1823,835 +1889,864 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1"/>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="8" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1">
+      <c r="A25" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1">
+      <c r="A33" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1">
+      <c r="A34" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="B35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="12" customFormat="1">
-      <c r="A6" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="12" customFormat="1">
-      <c r="A7" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1">
-      <c r="A8" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1">
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1">
+      <c r="A38" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1">
+      <c r="A39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1">
+      <c r="A40" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1">
-      <c r="A12" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="41" spans="1:7" s="8" customFormat="1">
+      <c r="A41" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>288</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1">
-      <c r="A25" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="12" customFormat="1">
-      <c r="A26" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>288</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="12" customFormat="1">
-      <c r="A33" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="12" customFormat="1">
-      <c r="A34" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="12" customFormat="1">
-      <c r="A36" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="12" customFormat="1">
-      <c r="A37" s="13" t="s">
+      <c r="E41" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="12" customFormat="1">
-      <c r="A38" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="12" customFormat="1">
-      <c r="A39" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="F39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="A40" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="12" customFormat="1">
-      <c r="A41" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="12" customFormat="1"/>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1"/>
   </sheetData>
   <sortState ref="A35:F82">
     <sortCondition ref="A35:A82"/>
@@ -2662,6 +2757,772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="9.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="40.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="409.6">
+      <c r="A3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="216">
+      <c r="A4" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="86.4">
+      <c r="A5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="244.8">
+      <c r="A6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="129.6">
+      <c r="A7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.6">
+      <c r="A8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="201.6">
+      <c r="A9" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.2">
+      <c r="A10" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8">
+      <c r="A11" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="129.6">
+      <c r="A12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="86.4">
+      <c r="A13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="100.8">
+      <c r="A14" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="72">
+      <c r="A15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8">
+      <c r="A16" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="28.8">
+      <c r="A17" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="22.8">
+      <c r="A18" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="E20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="L25" s="2"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="I26" s="4"/>
+      <c r="J26" s="7"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="L29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -2680,1098 +3541,1098 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
         <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H33" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
         <v>121</v>
-      </c>
-      <c r="E42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
         <v>121</v>
-      </c>
-      <c r="E43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" t="s">
         <v>121</v>
       </c>
-      <c r="E44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
         <v>79</v>
-      </c>
-      <c r="H46" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
         <v>79</v>
-      </c>
-      <c r="H48" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I50">
         <v>5010</v>
@@ -3779,134 +4640,134 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3914,7 +4775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
@@ -3939,621 +4800,621 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I5" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K5" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K6" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
         <v>1</v>
@@ -4561,48 +5422,48 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L25">
         <v>5010</v>
@@ -4610,817 +5471,817 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K38" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K51" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G52" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J53" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K55" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K56" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I57" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K57" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+      <c r="K58" t="s">
         <v>121</v>
-      </c>
-      <c r="I58" t="s">
-        <v>148</v>
-      </c>
-      <c r="J58" t="s">
-        <v>83</v>
-      </c>
-      <c r="K58" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H59" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" t="s">
+        <v>78</v>
+      </c>
+      <c r="K59" t="s">
         <v>121</v>
-      </c>
-      <c r="I59" t="s">
-        <v>148</v>
-      </c>
-      <c r="J59" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" t="s">
         <v>121</v>
       </c>
-      <c r="I60" t="s">
-        <v>126</v>
-      </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I61" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5430,7 +6291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -5440,850 +6301,135 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2">
+      <c r="A6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="A7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2">
-      <c r="A6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2">
-      <c r="A7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>140</v>
+      <c r="E7" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="57.5546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="49.109375" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="40.5546875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="C2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="144">
-      <c r="A3" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" ht="216">
-      <c r="A5" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="86.4">
-      <c r="A6" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="244.8">
-      <c r="A7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="129.6">
-      <c r="A8" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="86.4">
-      <c r="A9" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="100.8">
-      <c r="A10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="7">
-        <v>2</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="43.2">
-      <c r="B11" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="G11" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8">
-      <c r="A12" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="G12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="129.6">
-      <c r="B13" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="43.2">
-      <c r="A14" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="91.2">
-      <c r="A15" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45.6">
-      <c r="A16" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="79.8">
-      <c r="A17" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="45.6">
-      <c r="A18" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="57.6">
-      <c r="A19" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="22.8">
-      <c r="C20" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="C21" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="K25" s="4"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="K26" s="4"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="H27" s="6"/>
-      <c r="I27" s="11"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="K30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_Ref407429009" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Toc411507377" localSheetId="0">Schermen!$G$32</definedName>
-    <definedName name="_Toc411507378" localSheetId="0">Schermen!$G$35</definedName>
-    <definedName name="_Toc411507379" localSheetId="0">Schermen!$G$11</definedName>
+    <definedName name="_Toc411507377" localSheetId="0">Schermen!$C$32</definedName>
+    <definedName name="_Toc411507378" localSheetId="0">Schermen!$C$35</definedName>
+    <definedName name="_Toc411507379" localSheetId="0">Schermen!$C$11</definedName>
     <definedName name="_Toc424111341" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Toc424742519" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Toc425770051" localSheetId="1">Functies!$D$3</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="474">
   <si>
     <t>Scherm</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Beheer &gt;  Urentegoeden</t>
   </si>
   <si>
-    <t>Beheer &gt;  Bulk Import</t>
-  </si>
-  <si>
     <t>DTV9070</t>
   </si>
   <si>
@@ -220,33 +217,6 @@
   </si>
   <si>
     <t>Startpagina</t>
-  </si>
-  <si>
-    <t>6.2 Startpagina</t>
-  </si>
-  <si>
-    <t>6.3 Beheren medewerkers</t>
-  </si>
-  <si>
-    <t>6.4 Beheren urentegoeden</t>
-  </si>
-  <si>
-    <t>6.5 Beheren Toelagen en Toeslagen</t>
-  </si>
-  <si>
-    <t>6.6 Beheren Urenpools</t>
-  </si>
-  <si>
-    <t>6.7 Overzicht medewerker rechten</t>
-  </si>
-  <si>
-    <t>6.8 Overzicht perioderesultaten</t>
-  </si>
-  <si>
-    <t>6.9 Overzicht perioderesultaat</t>
-  </si>
-  <si>
-    <t>6.10 Overzicht medewerkerresultaat</t>
   </si>
   <si>
     <t>Transaction</t>
@@ -1122,12 +1092,6 @@
     <t>DTV9016</t>
   </si>
   <si>
-    <t>Beheer &gt; Medewerker Rol</t>
-  </si>
-  <si>
-    <t>Beheer &gt; Toelagen</t>
-  </si>
-  <si>
     <t>DTV9044</t>
   </si>
   <si>
@@ -1215,12 +1179,6 @@
     <t>Beheer &gt; Medewerkers &gt; Medewerker &gt; Arbeidsmodaliteit</t>
   </si>
   <si>
-    <t>Medewerker Rol</t>
-  </si>
-  <si>
-    <t>Bulk Import</t>
-  </si>
-  <si>
     <t>Beheer &gt;  Toelagen</t>
   </si>
   <si>
@@ -1258,12 +1216,236 @@
   </si>
   <si>
     <t>Ophalen periodebatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot het muteren van urentegoeden in de DTV-applicatie, dan wel verzenden van toelagen naar P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken. Zolang er definitieve dagverantwoordingen in de periodebatch zitten, is de knop "verstuur naar P-Direkt" niet aanwezig in de applicatie.
+Gegarandeerd moet worden dat na afloop alle periodeverantwoordingen die niet de status 'verzonden' hebben, afkomstig zijn uit dezelfde batch. Tijdens het versturen naar P-Direkt mag vernieuwing niet plaatsvinden, om volledigheid van P-Direkt bestanden te kunnen garanderen.
+</t>
+  </si>
+  <si>
+    <t>DTV-107, DTV-109</t>
+  </si>
+  <si>
+    <t>verantwoordingsperiode, batchStatus, genereerSPINqueries, SPINresWat, vulPeriodeVerantwoordingen, berichtZonderAfzender, verantwoording per medewerker, identificeerPeriodeverantwoording</t>
+  </si>
+  <si>
+    <t>resultaatSoort, foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>foutvrij P-Direkt bestand</t>
+  </si>
+  <si>
+    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie</t>
+  </si>
+  <si>
+    <t>tijdlijnArbeidsmodaliteiten, bevriezenArbeidsmodaliteiten</t>
+  </si>
+  <si>
+    <t>inRefLijstUrenpool, eigen beheer</t>
+  </si>
+  <si>
+    <t>Salarisschaal verplicht voor medewerker, eigen beheer</t>
+  </si>
+  <si>
+    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie, eigen beheer</t>
+  </si>
+  <si>
+    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, arbeidsrelatie, eigen beheer</t>
+  </si>
+  <si>
+    <t>inRefLijstUrenpool, head of trace, attached mutations, Unieke naam in referentielijsten</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Berekenen</t>
+  </si>
+  <si>
+    <t>De actie 'verstuur naar P-Direkt' wordt niet uitgevoerd.</t>
+  </si>
+  <si>
+    <t>knop op Startpagina: Verstuur naar P-Direkt</t>
+  </si>
+  <si>
+    <t>Verstuur naar P-Direkt</t>
+  </si>
+  <si>
+    <t>De actie 'verstuur naar P-Direkt' is niet in uitvoering en er is geen verwerking door de kennismotor aan de gang.</t>
+  </si>
+  <si>
+    <t>Maak een P-Direkt bestand aan, waarin alle periodeverantwoordingen worden verwerkt met de status 'te verzenden'. Die periodeverantwoordingen krijgen de status 'verzonden'. Muteer tevens de urentegoeden conform de toelageresultaten. Van belang is dat elke periodeverantwoording in z'n geheel volledig wordt verwerkt. Het mag bijvoorbeeld niet voorkomen dat er toelageresultaten uit een periodeverantwoording naar P-Direkt gaan, terwijl de mutaties van urentegoeden vanuit diezelfde verantwoording niet verwerkt zijn.
+Verwijder aansluitend alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit de overzichten in het startscherm, maar laat ze bestaan in de DTV-applicatie zodat SAS erbij kan. Ze worden pas verwijderd bij de volgende keer dat er gegevens uit SPIN worden opgehaald.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Er is géén periodeverantwoording met de status 'te verwerken' EN 
+er is tenminste één periodeverantwoording met de status ‘te verzenden’ EN 
+de laatste keer dat er gegevens uit SPIN zijn opgehaald werd variant A gebruikt (de variant waarbij geaccordeerde dagverantwoordingen zijn opgehaald). 
+</t>
+  </si>
+  <si>
+    <t>Berekening</t>
+  </si>
+  <si>
+    <t>Fie-2</t>
+  </si>
+  <si>
+    <t>Fie-16</t>
+  </si>
+  <si>
+    <t>Fie-17</t>
+  </si>
+  <si>
+    <t>Arbeidsmodaliteiten worden via een Excel-bestand ingeladen uit P-Direkt. Dit bestand, bijvoorbeeld “a1000361014 - adhoc - Roosters - NVWA – aanlevering.xlsx” wordt periodiek door P-Direkt aan P&amp;O aangeleverd, dus is het van belang dat dit bestand zonder verdere bewerking direkt door P&amp;O kan worden ingelezen. Een P&amp;O-medewerker bepaalt zelf wanneer hij arbeidsmodaliteiten in de DTV-applicatie inleest. Daarmee is de P&amp;O-medewerker zelf verantwoordelijk voor het actueel zijn van gegevens uit P-Direkt.
+Vanwege het zorgvuldig omgaan met persoonsgegevens, beperkt het kopieren zich tot gegevens, die binnen DTV strikt noodzakelijk zijn.</t>
+  </si>
+  <si>
+    <t>Omdat het bestand vanuit P-Direkt zonder verdere bewerking wordt gebruikt, dient de DTV-applicatie een aantal kolommen uit dit bestand te negeren.</t>
+  </si>
+  <si>
+    <t>Bij het opvoeren van een nieuwe medewerker wordt een nieuw personeelsnummer met bijbeorende naam geregistreerd in DTV.
+Wanneer dit gebeurt vanuit een scherm, dan wordt direct genavigeerd naar het scherm waarmee medewerkersrechten van de nieuwe medewerker kan worden beheerd. Hierdoor is de gebruiker in staat om direct de salarisschaal, categorie, en arbeismodaliteit van de nieuwe medewerker in te vullen.</t>
+  </si>
+  <si>
+    <t>Beheer medewerkerrechten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De medewerker bestaat </t>
+  </si>
+  <si>
+    <t>het aanmaken, verwijderen en muteren van medewerkerrechten</t>
+  </si>
+  <si>
+    <t>Het verwijderen, wijzigen en toevoegen van arbeidsmodaliteiten van een specifieke medewerker</t>
+  </si>
+  <si>
+    <t>Normaal gesproken mogen medewerkerrechten in het verleden niet meer worden aangepast. In uitzonderlijke situaties is het echter noodzakelijk om toch correcties door te voeren op gegevens uit het verleden. De applicatie laat de controle hierop dan lost. Uitgangspunt is dat de P&amp;O medewerker die deze correcties uitvoert, de consequenties kan overzien en daarvoor de verantwoordelijkheid kan dragen.</t>
+  </si>
+  <si>
+    <t>het corrigeren met terugwerkende kracht van individuele registraties van urentegoeden en medewerkerrechten, wanneer administratieve fouten in het verleden dat noodzakelijk maken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload urentegoeden en medewerkerrechten </t>
+  </si>
+  <si>
+    <t>DTV-170</t>
+  </si>
+  <si>
+    <t>muteer rolgegevens</t>
+  </si>
+  <si>
+    <t>het toekennen van een rol aan een account door een functioneel beheerder (FAB)</t>
+  </si>
+  <si>
+    <t>DTV9040, DTV9050</t>
+  </si>
+  <si>
+    <t>DTV9011, DTV9012, DTV9013, DTV9015</t>
+  </si>
+  <si>
+    <t>DTV9010, DTV9011, DTV9012, DTV9013, DTV9015</t>
+  </si>
+  <si>
+    <t>DTV9010, DTV9014</t>
+  </si>
+  <si>
+    <t>DTV9030, DTV9033</t>
+  </si>
+  <si>
+    <t>DTV5021, DTV1011</t>
+  </si>
+  <si>
+    <t>DTV1010, DTV1020, DTV1030</t>
+  </si>
+  <si>
+    <t>DTV1000, DTV1010, DTV1020, DTV1030</t>
+  </si>
+  <si>
+    <t>DTV1000, DTV1010, DTV1020, DTV1030, DTV1040</t>
+  </si>
+  <si>
+    <t>[Scherm]</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>nav~</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>,Rol</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>funcSpec</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>,Scherm</t>
+  </si>
+  <si>
+    <t>DTV9013</t>
+  </si>
+  <si>
+    <t>Salarisschaal en Categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beheer &gt; Import Arbeidsmodaliteiten </t>
+  </si>
+  <si>
+    <t>Import Arbeidsmodaliteiten</t>
+  </si>
+  <si>
+    <t>Excel-bestand</t>
+  </si>
+  <si>
+    <t>DTV9080</t>
+  </si>
+  <si>
+    <t>Excel Export Arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>Beheer &gt; Export Arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>import arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>Beheer &gt;  import arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>Dit is nodig om het systeem initieel te vullen, maar zal in de toekomst ook nodig zijn om meervoudige mutaties uit te voeren (bulk).</t>
+  </si>
+  <si>
+    <t>7.7 Overzicht medewerker rechten</t>
+  </si>
+  <si>
+    <t>7.8 Overzicht perioderesultaten</t>
+  </si>
+  <si>
+    <t>7.9 Overzicht perioderesultaat</t>
+  </si>
+  <si>
+    <t>7.10 Overzicht medewerkerresultaat</t>
+  </si>
+  <si>
+    <t>7.4 Beheren urentegoeden</t>
+  </si>
+  <si>
+    <t>7.5 Beheren Toelagen en Toeslagen</t>
+  </si>
+  <si>
+    <t>7.6 Beheren Urenpools</t>
   </si>
   <si>
     <t xml:space="preserve">Deze functie betreft het ophalen van alle dagverantwoordingen uit SPIN, die een combinatie van datum en personeelsnummer hebben, waarvoor nog geen periodeverantwoording naar P-Direkt is verstuurd. Deze functie kent twee varianten:
 variant A: uitsluitend geaccordeerde dagverantwoordingen, en
 variant D: alle definitief gemaakte dagverantwoordingen.
-Merk op dat variant A een deelverzameling is van variant D. In de verwerking ervan is het enige verschil dat verzending naar P-Direkt en uitvoering van urenmutaties alleen mag plaatsvinden bij variant A (functie 6.4 Verstuur naar P-Direkt). Voor het overige verloopt de verwerking identiek.
+Merk op dat variant A een deelverzameling is van variant D. In de verwerking ervan is het enige verschil dat verzending naar P-Direkt en uitvoering van urenmutaties alleen mag plaatsvinden bij variant A (functie 7.4 Verstuur naar P-Direkt). Voor het overige verloopt de verwerking identiek.
 De verwerking verloopt als volgt.
 Om te beginnen worden alle periodeverantwoordingen in de DTV-applicatie die niet verzonden zijn, verwijderd, inclusief bijbehorende resultaten. Daarmee ontstaat een lege batch.
 Vervolgens wordt de query naar SPIN uitgevoerd, waardoor de dagverantwoordingen (in variant A dan wel D) in de DTV-applicatie worden geladen.
@@ -1273,82 +1455,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Om teamleiders terugkoppeling te kunnen geven alvorens te accorderen, kunnen de tot dan toe definitief gemaakte dagverantwoordingen door de kennismotor worden verwerkt, zonder dat dit tot het muteren van urentegoeden in de DTV-applicatie, dan wel verzenden van toelagen naar P-Direkt leidt. De P&amp;O-medewerker kan zelf beslissen om deze mogelijkheid te gebruiken. Zolang er definitieve dagverantwoordingen in de periodebatch zitten, is de knop "verstuur naar P-Direkt" niet aanwezig in de applicatie.
-Gegarandeerd moet worden dat na afloop alle periodeverantwoordingen die niet de status 'verzonden' hebben, afkomstig zijn uit dezelfde batch. Tijdens het versturen naar P-Direkt mag vernieuwing niet plaatsvinden, om volledigheid van P-Direkt bestanden te kunnen garanderen.
-</t>
-  </si>
-  <si>
-    <t>DTV-107, DTV-109</t>
-  </si>
-  <si>
-    <t>verantwoordingsperiode, batchStatus, genereerSPINqueries, SPINresWat, vulPeriodeVerantwoordingen, berichtZonderAfzender, verantwoording per medewerker, identificeerPeriodeverantwoording</t>
-  </si>
-  <si>
-    <t>resultaatSoort, foutvrij P-Direkt bestand</t>
-  </si>
-  <si>
-    <t>foutvrij P-Direkt bestand</t>
-  </si>
-  <si>
-    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie</t>
-  </si>
-  <si>
-    <t>tijdlijnArbeidsmodaliteiten, bevriezenArbeidsmodaliteiten</t>
-  </si>
-  <si>
-    <t>inRefLijstUrenpool, eigen beheer</t>
-  </si>
-  <si>
-    <t>Salarisschaal verplicht voor medewerker, eigen beheer</t>
-  </si>
-  <si>
-    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie, eigen beheer</t>
-  </si>
-  <si>
-    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, arbeidsrelatie, eigen beheer</t>
-  </si>
-  <si>
-    <t>inRefLijstUrenpool, head of trace, attached mutations, Unieke naam in referentielijsten</t>
-  </si>
-  <si>
-    <t>knop op Startpagina: Berekenen</t>
-  </si>
-  <si>
-    <t>De actie 'verstuur naar P-Direkt' wordt niet uitgevoerd.</t>
-  </si>
-  <si>
-    <t>knop op Startpagina: Verstuur naar P-Direkt</t>
-  </si>
-  <si>
-    <t>Verstuur naar P-Direkt</t>
-  </si>
-  <si>
-    <t>De actie 'verstuur naar P-Direkt' is niet in uitvoering en er is geen verwerking door de kennismotor aan de gang.</t>
-  </si>
-  <si>
-    <t>Maak een P-Direkt bestand aan, waarin alle periodeverantwoordingen worden verwerkt met de status 'te verzenden'. Die periodeverantwoordingen krijgen de status 'verzonden'. Muteer tevens de urentegoeden conform de toelageresultaten. Van belang is dat elke periodeverantwoording in z'n geheel volledig wordt verwerkt. Het mag bijvoorbeeld niet voorkomen dat er toelageresultaten uit een periodeverantwoording naar P-Direkt gaan, terwijl de mutaties van urentegoeden vanuit diezelfde verantwoording niet verwerkt zijn.
-Verwijder aansluitend alle periodeverantwoordingen die NIET de status 'verzonden' hebben uit de overzichten in het startscherm, maar laat ze bestaan in de DTV-applicatie zodat SAS erbij kan. Ze worden pas verwijderd bij de volgende keer dat er gegevens uit SPIN worden opgehaald.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er is géén periodeverantwoording met de status 'te verwerken' EN 
-er is tenminste één periodeverantwoording met de status ‘te verzenden’ EN 
-de laatste keer dat er gegevens uit SPIN zijn opgehaald werd variant A gebruikt (de variant waarbij geaccordeerde dagverantwoordingen zijn opgehaald). 
-</t>
-  </si>
-  <si>
-    <t>Berekening</t>
-  </si>
-  <si>
-    <t>Fie-2</t>
-  </si>
-  <si>
-    <t>Fie-16</t>
-  </si>
-  <si>
-    <t>Fie-17</t>
-  </si>
-  <si>
-    <t>Via een Excel-spreadsheet in .csv-formaat leest de DTV-applicatie gegevens over rechten en urentegoeden in. Dit wordt gebruikt om de database initieel te vullen  met de knop “bulk import”.
+    <t>Via een Excel-spreadsheet in .csv-formaat leest de DTV-applicatie gegevens over rechten en urentegoeden in. Dit wordt gebruikt om de database initieel te vullen  met de knop “import arbeidsrelaties”.
 Wanneer een spreadsheet niet leesbaar is, antwoordt het systeem met een foutmelding waarin alle op dat moment verwachte attributen in een juiste volgorde worden opgesomd.
 In de beschrijving hieronder is op verschillende plekken sprake van “in de output melding maken”. Al deze meldingen worden in een lijst samengebracht en als output aan de gebruiker gepresenteerd. De eis hieraan is dat eventuele fouten door de gebruiker met de hand kunnen worden hersteld op basis van deze output. Daarom moet van elk record, wat vernietigd wordt, alle attributen in de output worden opgenomen.
 Van elke rij in de tabel wordt in de DTV-applicatie opgenomen:
@@ -1363,7 +1470,7 @@
 Interpretatie: dd-mm-yyyy. Deze datum wordt opgeslagen als einddatum van elk medewerkerrecht dat vanuit deze rij wordt aangemaakt.
 5. Salarisschaal
 een tekst van maximaal twee tekens. Er wordt een nieuw medewerkerrecht gemaakt, waarvan het attribuut “recht” wordt gevuld met het woord “salarisschaal”  aangevuld met de twee tekens uit deze cel.
-6. Categorie
+7. Categorie
 een tekst van maximaal twee tekens. Er wordt een nieuw medewerkerrecht gemaakt, waarvan het attribuut “recht” wordt gevuld met het woord “categorie”  aangevuld met de twee tekens uit deze cel.
 7. persoonlijke meeruren
 een geheel getal (u), eventueel gevolgd door een komma en een geheel getal (m). Het getal u representeert het aantal persoonlijke meeruren dat de betreffende medewerker vanaf de begindatum tegoed heeft. Het getal m representeert het aantal minuten dat de betreffende medewerker daar bovenop tegoed heeft. Het aantal minuten is altijd 15, 30 of 45.
@@ -1395,106 +1502,56 @@
 3. Als een medewerkerrecht met recht “categorie&lt;n&gt;” en begindatum b is gemaakt voor een persoon p, dan worden alle opgeslagen medewerkerrechten van diezelfde persoon met “categorie &lt;m&gt;” en begindatum &gt;= b vernietigd. Van het vernietigen wordt in de output melding gemaakt.
 4. Als een medewerkerrecht met recht “categorie &lt;n&gt;” en begindatum b is gemaakt voor een persoon p, dan past het systeem alle opgeslagen medewerkerrechten van diezelfde persoon met “categorie &lt;m&gt;” en (einddatum &gt;= b of de einddatum is leeg) aan. De einddatum van zulke medewerkerrechten wordt op b-1 gezet.
 5. Als een medewerkerrecht met een ander recht dan categorie of salarisschaal, en met begindatum b is gemaakt voor een persoon p, dan worden alle opgeslagen medewerkerrechten van diezelfde persoon met hetzelfde recht en begindatum &gt;= b vernietigd. Van het vernietigen wordt in de output melding gemaakt.
-6. Als een medewerkerrecht met een ander recht dan categorie of salarisschaal, en met begindatum b is gemaakt voor een persoon p, dan past het systeem alle opgeslagen medewerkerrechten van diezelfde persoon met hetzelfde recht en (einddatum &gt;= b of de einddatum is leeg) aan. De einddatum van zulke medewerkerrechten wordt op d-1 gezet.
+7. Als een medewerkerrecht met een ander recht dan categorie of salarisschaal, en met begindatum b is gemaakt voor een persoon p, dan past het systeem alle opgeslagen medewerkerrechten van diezelfde persoon met hetzelfde recht en (einddatum &gt;= b of de einddatum is leeg) aan. De einddatum van zulke medewerkerrechten wordt op d-1 gezet.
 7. Als een urentegoed met urenpool p en vanaf-datum d is gemaakt voor een persoon p, dan vernietigt het systeem alle opgeslagen urentegoeden van diezelfde persoon met dezelfde urenpool en vanaf-datum &gt;= d. Van het vernietigen wordt in de output melding gemaakt.</t>
   </si>
   <si>
-    <t>Dit is nodig om het systeem initieel te vullen, maar zal in de toekomst ook nodig zijn om meervoudige mutaties uit te voeren (bulk/batch).</t>
-  </si>
-  <si>
-    <t>Arbeidsmodaliteiten worden via een Excel-bestand ingeladen uit P-Direkt. Dit bestand, bijvoorbeeld “a1000361014 - adhoc - Roosters - NVWA – aanlevering.xlsx” wordt periodiek door P-Direkt aan P&amp;O aangeleverd, dus is het van belang dat dit bestand zonder verdere bewerking direkt door P&amp;O kan worden ingelezen. Een P&amp;O-medewerker bepaalt zelf wanneer hij arbeidsmodaliteiten in de DTV-applicatie inleest. Daarmee is de P&amp;O-medewerker zelf verantwoordelijk voor het actueel zijn van gegevens uit P-Direkt.
-Vanwege het zorgvuldig omgaan met persoonsgegevens, beperkt het kopieren zich tot gegevens, die binnen DTV strikt noodzakelijk zijn.</t>
-  </si>
-  <si>
-    <t>Omdat het bestand vanuit P-Direkt zonder verdere bewerking wordt gebruikt, dient de DTV-applicatie een aantal kolommen uit dit bestand te negeren.</t>
-  </si>
-  <si>
-    <t>Bij het opvoeren van een nieuwe medewerker wordt een nieuw personeelsnummer met bijbeorende naam geregistreerd in DTV.
-Wanneer dit gebeurt vanuit een scherm, dan wordt direct genavigeerd naar het scherm waarmee medewerkersrechten van de nieuwe medewerker kan worden beheerd. Hierdoor is de gebruiker in staat om direct de salarisschaal, categorie, en arbeismodaliteit van de nieuwe medewerker in te vullen.</t>
-  </si>
-  <si>
-    <t>Beheer medewerkerrechten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De medewerker bestaat </t>
-  </si>
-  <si>
-    <t>het aanmaken, verwijderen en muteren van medewerkerrechten</t>
-  </si>
-  <si>
-    <t>Het verwijderen, wijzigen en toevoegen van arbeidsmodaliteiten van een specifieke medewerker</t>
-  </si>
-  <si>
-    <t>Normaal gesproken mogen medewerkerrechten in het verleden niet meer worden aangepast. In uitzonderlijke situaties is het echter noodzakelijk om toch correcties door te voeren op gegevens uit het verleden. De applicatie laat de controle hierop dan lost. Uitgangspunt is dat de P&amp;O medewerker die deze correcties uitvoert, de consequenties kan overzien en daarvoor de verantwoordelijkheid kan dragen.</t>
-  </si>
-  <si>
-    <t>het corrigeren met terugwerkende kracht van individuele registraties van urentegoeden en medewerkerrechten, wanneer administratieve fouten in het verleden dat noodzakelijk maken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upload urentegoeden en medewerkerrechten </t>
-  </si>
-  <si>
-    <t>DTV-170</t>
-  </si>
-  <si>
-    <t>muteer rolgegevens</t>
-  </si>
-  <si>
-    <t>het toekennen van een rol aan een account door een functioneel beheerder (FAB)</t>
-  </si>
-  <si>
-    <t>DTV9040, DTV9050</t>
-  </si>
-  <si>
-    <t>DTV9011, DTV9012, DTV9013, DTV9015</t>
-  </si>
-  <si>
-    <t>DTV9010, DTV9011, DTV9012, DTV9013, DTV9015</t>
-  </si>
-  <si>
-    <t>DTV9010, DTV9014</t>
-  </si>
-  <si>
-    <t>DTV9030, DTV9033</t>
-  </si>
-  <si>
-    <t>DTV5021, DTV1011</t>
-  </si>
-  <si>
-    <t>DTV1010, DTV1020, DTV1030</t>
-  </si>
-  <si>
-    <t>DTV1000, DTV1010, DTV1020, DTV1030</t>
-  </si>
-  <si>
-    <t>DTV1000, DTV1010, DTV1020, DTV1030, DTV1040</t>
-  </si>
-  <si>
-    <t>[Scherm]</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
-    <t>nav~</t>
-  </si>
-  <si>
-    <t>auth</t>
-  </si>
-  <si>
-    <t>,Rol</t>
-  </si>
-  <si>
-    <t>pad</t>
-  </si>
-  <si>
-    <t>funcSpec</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>,Scherm</t>
+    <t>7.3.1 Startpagina</t>
+  </si>
+  <si>
+    <t>7.3.2 Startpagina</t>
+  </si>
+  <si>
+    <t>7.3.3 Startpagina</t>
+  </si>
+  <si>
+    <t>7.3.4 Startpagina</t>
+  </si>
+  <si>
+    <t>7.3.5 Startpagina</t>
+  </si>
+  <si>
+    <t>7.3.6 Startpagina</t>
+  </si>
+  <si>
+    <t>7.3.7 Startpagina</t>
+  </si>
+  <si>
+    <t>7.4.1 Beheren medewerkers</t>
+  </si>
+  <si>
+    <t>7.4.2 Beheren medewerkers</t>
+  </si>
+  <si>
+    <t>7.4.3 Beheren medewerkers</t>
+  </si>
+  <si>
+    <t>7.4.4 Beheren medewerkers</t>
+  </si>
+  <si>
+    <t>7.4.5 Beheren medewerkers</t>
+  </si>
+  <si>
+    <t>7.4.6 Beheren arbeidsmodaliteit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5.3 </t>
   </si>
 </sst>
 </file>
@@ -1872,44 +1929,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>36</v>
+        <v>434</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>452</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1917,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>450</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>430</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>453</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1940,20 +1997,20 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>275</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>342</v>
+        <v>265</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1961,22 +2018,22 @@
         <v>13</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>333</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1984,102 +2041,114 @@
         <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
       <c r="A6" s="8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>47</v>
+        <v>334</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>47</v>
+        <v>335</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>371</v>
+        <v>337</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
       <c r="A9" s="8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>41</v>
+        <v>339</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2089,61 +2158,61 @@
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>58</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
       <c r="A12" s="8" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>353</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2151,22 +2220,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2174,22 +2243,22 @@
         <v>5</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" s="8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2197,84 +2266,84 @@
         <v>6</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C17" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>378</v>
+        <v>131</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="8"/>
+        <v>366</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="8" t="s">
@@ -2283,41 +2352,41 @@
       <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E19" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2325,122 +2394,123 @@
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="E23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B25" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1">
-      <c r="A25" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E25" s="8" t="s">
-        <v>382</v>
+        <v>131</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>117</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>338</v>
+        <v>370</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2448,74 +2518,76 @@
         <v>20</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="E27" s="8" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="8"/>
+        <v>447</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="G28" s="8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>38</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2525,228 +2597,254 @@
         <v>22</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E31" s="8" t="s">
-        <v>385</v>
+        <v>47</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>56</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1">
       <c r="A33" s="8" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>355</v>
+        <v>47</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>396</v>
+        <v>343</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C34" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>357</v>
+        <v>47</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>396</v>
+        <v>345</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>388</v>
+        <v>47</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>57</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>389</v>
+        <v>47</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>396</v>
+        <v>375</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>373</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>391</v>
+        <v>47</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>396</v>
+        <v>377</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1">
       <c r="A39" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C39" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="E39" s="8" t="s">
-        <v>360</v>
+        <v>131</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>37</v>
+        <v>348</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>394</v>
+        <v>444</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>353</v>
+        <v>131</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>44</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1">
       <c r="A41" s="8" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>361</v>
+        <v>473</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1"/>
+        <v>131</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1">
+      <c r="A42" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1"/>
   </sheetData>
   <sortState ref="A35:F82">
     <sortCondition ref="A35:A82"/>
@@ -2760,9 +2858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
@@ -2783,669 +2881,669 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="2" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="409.6">
       <c r="A3" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="216">
       <c r="A4" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="86.4">
       <c r="A5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="L5" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="244.8">
       <c r="A6" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="129.6">
       <c r="A7" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="409.6">
       <c r="A8" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="201.6">
       <c r="A9" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="43.2">
       <c r="A10" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="28.8">
       <c r="A11" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F11" s="7"/>
       <c r="H11" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="129.6">
       <c r="A12" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="86.4">
       <c r="A13" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="100.8">
       <c r="A14" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="72">
       <c r="A15" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="28.8">
       <c r="A16" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="28.8">
       <c r="A17" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="22.8">
       <c r="A18" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3541,1098 +3639,1098 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
-        <v>116</v>
-      </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G42" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G44" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" t="s">
         <v>133</v>
       </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" t="s">
-        <v>143</v>
-      </c>
       <c r="G45" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I50">
         <v>5010</v>
@@ -4640,134 +4738,134 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H54" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4800,621 +4898,621 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
       <c r="G2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
         <v>1</v>
@@ -5422,48 +5520,48 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
         <v>144</v>
       </c>
-      <c r="B25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" t="s">
-        <v>154</v>
-      </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="L25">
         <v>5010</v>
@@ -5471,817 +5569,817 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I27" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H28" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K36" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K38" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H42" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K42" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K43" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K45" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J46" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K46" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C47" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F47" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H47" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K47" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
         <v>106</v>
       </c>
-      <c r="H48" t="s">
-        <v>116</v>
-      </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K48" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J49" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K49" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="H50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J51" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K51" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E52" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G52" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J52" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K52" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J53" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J55" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G56" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E57" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G58" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I58" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J58" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K58" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H59" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I59" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="J59" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K59" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K60" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" t="s">
         <v>133</v>
       </c>
-      <c r="H61" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" t="s">
-        <v>143</v>
-      </c>
       <c r="J61" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K61" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6311,36 +6409,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2">
@@ -6348,16 +6446,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2">
@@ -6365,16 +6463,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2">
@@ -6382,50 +6480,50 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2">
       <c r="A7" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360"/>
+    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
   </sheets>
   <definedNames>
     <definedName name="_Ref407429009" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Toc411507377" localSheetId="0">Schermen!$C$32</definedName>
-    <definedName name="_Toc411507378" localSheetId="0">Schermen!$C$35</definedName>
+    <definedName name="_Ref423616110" localSheetId="1">Functies!$B$4</definedName>
+    <definedName name="_Ref423616264" localSheetId="1">Functies!#REF!</definedName>
+    <definedName name="_Ref423616352" localSheetId="1">Functies!#REF!</definedName>
+    <definedName name="_Toc411507377" localSheetId="0">Schermen!$C$33</definedName>
+    <definedName name="_Toc411507378" localSheetId="0">Schermen!$C$36</definedName>
     <definedName name="_Toc411507379" localSheetId="0">Schermen!$C$11</definedName>
     <definedName name="_Toc424111341" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Toc424742519" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Toc425770051" localSheetId="1">Functies!$D$3</definedName>
+    <definedName name="_Toc425770051" localSheetId="1">Functies!$E$3</definedName>
+    <definedName name="_Toc426017420" localSheetId="1">Functies!#REF!</definedName>
+    <definedName name="_Toc426017425" localSheetId="1">Functies!$B$8</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="483">
   <si>
     <t>Scherm</t>
   </si>
@@ -142,12 +147,6 @@
   </si>
   <si>
     <t>Overzichten &gt;  Medewerker Rechten</t>
-  </si>
-  <si>
-    <t>Overzichten &gt;  Eigen gegevens</t>
-  </si>
-  <si>
-    <t>DTV5030</t>
   </si>
   <si>
     <t>DTV5040</t>
@@ -845,9 +844,6 @@
     <t>Er is tenminste één periodeverantwoording met de status 'te verwerken', en er is geen upload van P-Direktgegevens aan de gang.</t>
   </si>
   <si>
-    <t>lees medewerkerrechten in</t>
-  </si>
-  <si>
     <t>DTV-86</t>
   </si>
   <si>
@@ -860,12 +856,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>P&amp;O, FAB</t>
-  </si>
-  <si>
-    <t>Beheer &gt;  Arbeidsmodaliteiten Import</t>
-  </si>
-  <si>
     <t>knop op Startpagina: Vrijgeven van feedback</t>
   </si>
   <si>
@@ -953,9 +943,6 @@
     <t>3d</t>
   </si>
   <si>
-    <t>3e</t>
-  </si>
-  <si>
     <t xml:space="preserve">wijzig urentegoed </t>
   </si>
   <si>
@@ -995,13 +982,7 @@
     <t xml:space="preserve">het beheren van referentielijsten (stamtabellen) door een functioneel beheerder (FAB) </t>
   </si>
   <si>
-    <t>FO-initiële gegevens</t>
-  </si>
-  <si>
     <t xml:space="preserve">corrigeer TWK urentegoed </t>
-  </si>
-  <si>
-    <t>het corrigeren met terugwerkende kracht van alle registraties van medewerkerrechten vanaf een bepaalde datum door het inlezen van een Excel-bestand met de correcte gegevens.</t>
   </si>
   <si>
     <t>via SAS</t>
@@ -1156,9 +1137,6 @@
   </si>
   <si>
     <t>lijst van personeelsnummers</t>
-  </si>
-  <si>
-    <t>Eigen gegevens</t>
   </si>
   <si>
     <t>Historische Medewerkerrechten</t>
@@ -1248,9 +1226,6 @@
   </si>
   <si>
     <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, bevriezenMedewerkersrechten, arbeidsrelatie, eigen beheer</t>
-  </si>
-  <si>
-    <t>Ingangsdatum verplicht in medewerkerRecht, geenSalarisOverlap, geenCategorieOverlap, salarisGedurendeContractduur, categorieGedurendeContractduur, arbeidsrelatie, eigen beheer</t>
   </si>
   <si>
     <t>inRefLijstUrenpool, head of trace, attached mutations, Unieke naam in referentielijsten</t>
@@ -1322,9 +1297,6 @@
     <t>het corrigeren met terugwerkende kracht van individuele registraties van urentegoeden en medewerkerrechten, wanneer administratieve fouten in het verleden dat noodzakelijk maken.</t>
   </si>
   <si>
-    <t xml:space="preserve">upload urentegoeden en medewerkerrechten </t>
-  </si>
-  <si>
     <t>DTV-170</t>
   </si>
   <si>
@@ -1383,9 +1355,6 @@
   </si>
   <si>
     <t>Ref</t>
-  </si>
-  <si>
-    <t>,Scherm</t>
   </si>
   <si>
     <t>DTV9013</t>
@@ -1552,6 +1521,69 @@
   </si>
   <si>
     <t xml:space="preserve">7.5.3 </t>
+  </si>
+  <si>
+    <t>DTV5021-PDIR</t>
+  </si>
+  <si>
+    <t>DTV5021-UURP</t>
+  </si>
+  <si>
+    <t>DTV5021-OPSL</t>
+  </si>
+  <si>
+    <t>HR, FAB</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>[Scherm,]</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>TekstReferentie</t>
+  </si>
+  <si>
+    <t>FO 6.1</t>
+  </si>
+  <si>
+    <t>FO 6.2</t>
+  </si>
+  <si>
+    <t>FO 6.3</t>
+  </si>
+  <si>
+    <t>FO 6.4</t>
+  </si>
+  <si>
+    <t>FO 6.5</t>
+  </si>
+  <si>
+    <t>Importeren en exporteren van Arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>FO 6.6</t>
+  </si>
+  <si>
+    <t>FO 6.7</t>
+  </si>
+  <si>
+    <t>Beheer &gt; Import Arbeidsmodaliteiten</t>
+  </si>
+  <si>
+    <t>FO 6.8</t>
+  </si>
+  <si>
+    <t>FO 6.9</t>
+  </si>
+  <si>
+    <t>FO 6.11</t>
+  </si>
+  <si>
+    <t>FO 6.10</t>
   </si>
 </sst>
 </file>
@@ -1612,9 +1644,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1634,7 +1665,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1929,922 +1974,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1">
+      <c r="A6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1">
+      <c r="A8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1">
+      <c r="A9" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1" ht="28.8">
+      <c r="A12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="28.8">
+      <c r="A14" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="28.8">
+      <c r="A15" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1">
+      <c r="A25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="28.8">
+      <c r="A27" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1">
+      <c r="A34" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1">
+      <c r="A35" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1">
+      <c r="A37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1">
+      <c r="A38" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1">
+      <c r="A39" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1">
+      <c r="A40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1">
+      <c r="A41" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1">
+      <c r="A42" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="C42" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="8" t="s">
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1">
+      <c r="A43" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1">
-      <c r="A24" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1">
-      <c r="A26" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1">
-      <c r="A33" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1">
-      <c r="A34" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1">
-      <c r="A36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1">
-      <c r="A37" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1">
-      <c r="A38" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1">
-      <c r="A39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1">
-      <c r="A40" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1">
-      <c r="A41" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1">
-      <c r="A42" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1"/>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1">
+      <c r="E44" s="8"/>
+    </row>
   </sheetData>
   <sortState ref="A35:F82">
     <sortCondition ref="A35:A82"/>
@@ -2856,763 +2924,780 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="57.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="40.5546875" style="2"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="40.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="374.4">
+      <c r="A3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="216">
+      <c r="A4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="72">
+      <c r="A5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="230.4">
+      <c r="A6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="129.6">
+      <c r="A7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="409.6">
+      <c r="A8" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="409.6">
-      <c r="A3" s="2" t="s">
+      <c r="N8" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="172.8">
+      <c r="A9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="43.2">
+      <c r="A10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8">
+      <c r="A11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="115.2">
+      <c r="A12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="86.4">
+      <c r="A13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="28.8">
+      <c r="A14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="100.8">
+      <c r="A15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.8">
+      <c r="A16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="216">
-      <c r="A4" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="86.4">
-      <c r="A5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="244.8">
-      <c r="A6" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="129.6">
-      <c r="A7" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="409.6">
-      <c r="A8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="201.6">
-      <c r="A9" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="5">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.2">
-      <c r="A10" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.8">
-      <c r="A11" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="K19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="H11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="129.6">
-      <c r="A12" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="86.4">
-      <c r="A13" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="100.8">
-      <c r="A14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="72">
-      <c r="A15" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.8">
-      <c r="A16" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="28.8">
-      <c r="A17" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="22.8">
-      <c r="A18" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="E20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="L21" s="2"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="L25" s="2"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="I26" s="4"/>
-      <c r="J26" s="7"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="L29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="F20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="M25" s="1"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="J26" s="3"/>
+      <c r="K26" s="6"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="M29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3639,1098 +3724,1098 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
         <v>145</v>
-      </c>
-      <c r="I1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
         <v>166</v>
       </c>
-      <c r="D19" t="s">
-        <v>168</v>
-      </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
         <v>83</v>
-      </c>
-      <c r="G21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F37" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" t="s">
-        <v>107</v>
-      </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" t="s">
         <v>109</v>
       </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>111</v>
-      </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
         <v>116</v>
       </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
         <v>117</v>
       </c>
-      <c r="C43" t="s">
-        <v>119</v>
-      </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
         <v>124</v>
       </c>
-      <c r="C46" t="s">
-        <v>126</v>
-      </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
         <v>127</v>
       </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
       <c r="D47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" t="s">
         <v>131</v>
       </c>
-      <c r="E49" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" t="s">
-        <v>133</v>
-      </c>
       <c r="G49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" t="s">
         <v>131</v>
-      </c>
-      <c r="E50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" t="s">
-        <v>133</v>
       </c>
       <c r="I50">
         <v>5010</v>
@@ -4738,134 +4823,134 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" t="s">
         <v>131</v>
-      </c>
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
         <v>131</v>
       </c>
-      <c r="E52" t="s">
-        <v>182</v>
-      </c>
-      <c r="F52" t="s">
-        <v>133</v>
-      </c>
       <c r="G52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" t="s">
         <v>131</v>
       </c>
-      <c r="E53" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" t="s">
-        <v>133</v>
-      </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" t="s">
         <v>131</v>
       </c>
-      <c r="E55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" t="s">
-        <v>133</v>
-      </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" t="s">
         <v>131</v>
       </c>
-      <c r="E56" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" t="s">
-        <v>133</v>
-      </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4898,621 +4983,621 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>192</v>
       </c>
-      <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>194</v>
-      </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" t="s">
         <v>166</v>
       </c>
-      <c r="H5" t="s">
-        <v>168</v>
-      </c>
       <c r="I5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
         <v>197</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>165</v>
       </c>
-      <c r="C6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
         <v>209</v>
       </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" t="s">
-        <v>211</v>
-      </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" t="s">
         <v>185</v>
       </c>
-      <c r="B15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>221</v>
-      </c>
-      <c r="H15" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" t="s">
-        <v>187</v>
-      </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" t="s">
         <v>130</v>
       </c>
-      <c r="G23" t="s">
-        <v>130</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>131</v>
-      </c>
-      <c r="I23" t="s">
-        <v>133</v>
-      </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" t="s">
-        <v>133</v>
       </c>
       <c r="L23" t="s">
         <v>1</v>
@@ -5520,48 +5605,48 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L25">
         <v>5010</v>
@@ -5569,817 +5654,817 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" t="s">
         <v>131</v>
       </c>
-      <c r="I27" t="s">
-        <v>133</v>
-      </c>
       <c r="J27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" t="s">
         <v>131</v>
       </c>
-      <c r="I28" t="s">
-        <v>133</v>
-      </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
         <v>131</v>
       </c>
-      <c r="I29" t="s">
-        <v>133</v>
-      </c>
       <c r="J29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" t="s">
         <v>131</v>
       </c>
-      <c r="I30" t="s">
-        <v>133</v>
-      </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" t="s">
         <v>105</v>
       </c>
-      <c r="H32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" t="s">
-        <v>107</v>
-      </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" t="s">
-        <v>162</v>
-      </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" t="s">
         <v>109</v>
       </c>
-      <c r="G55" t="s">
-        <v>110</v>
-      </c>
-      <c r="H55" t="s">
-        <v>33</v>
-      </c>
-      <c r="I55" t="s">
-        <v>111</v>
-      </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" t="s">
         <v>116</v>
       </c>
-      <c r="G58" t="s">
-        <v>118</v>
-      </c>
       <c r="H58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E59" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" t="s">
         <v>117</v>
       </c>
-      <c r="G59" t="s">
-        <v>119</v>
-      </c>
       <c r="H59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6399,131 +6484,131 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2">
+      <c r="A6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="A7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.2">
-      <c r="A6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2">
-      <c r="A7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>125</v>
+      <c r="E7" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -15,17 +15,17 @@
   </sheets>
   <definedNames>
     <definedName name="_Ref407429009" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Ref423616110" localSheetId="1">Functies!$B$4</definedName>
+    <definedName name="_Ref423616110" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Ref423616264" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Ref423616352" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Toc411507377" localSheetId="0">Schermen!$C$33</definedName>
-    <definedName name="_Toc411507378" localSheetId="0">Schermen!$C$36</definedName>
-    <definedName name="_Toc411507379" localSheetId="0">Schermen!$C$11</definedName>
+    <definedName name="_Toc411507377" localSheetId="0">Schermen!$D$35</definedName>
+    <definedName name="_Toc411507378" localSheetId="0">Schermen!$D$38</definedName>
+    <definedName name="_Toc411507379" localSheetId="0">Schermen!$D$12</definedName>
     <definedName name="_Toc424111341" localSheetId="1">Functies!#REF!</definedName>
     <definedName name="_Toc424742519" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Toc425770051" localSheetId="1">Functies!$E$3</definedName>
+    <definedName name="_Toc425770051" localSheetId="1">Functies!$D$3</definedName>
     <definedName name="_Toc426017420" localSheetId="1">Functies!#REF!</definedName>
-    <definedName name="_Toc426017425" localSheetId="1">Functies!$B$8</definedName>
+    <definedName name="_Toc426017425" localSheetId="1">Functies!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="480">
   <si>
     <t>Scherm</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>DTV5010</t>
-  </si>
-  <si>
-    <t>Overzichten &gt;  Medewerker Rechten</t>
   </si>
   <si>
     <t>DTV5040</t>
@@ -982,9 +979,6 @@
     <t xml:space="preserve">het beheren van referentielijsten (stamtabellen) door een functioneel beheerder (FAB) </t>
   </si>
   <si>
-    <t xml:space="preserve">corrigeer TWK urentegoed </t>
-  </si>
-  <si>
     <t>via SAS</t>
   </si>
   <si>
@@ -1015,9 +1009,6 @@
     <t>muteer stamgegevens</t>
   </si>
   <si>
-    <t>DTV9025</t>
-  </si>
-  <si>
     <t>Beheer &gt; Urentegoeden</t>
   </si>
   <si>
@@ -1025,9 +1016,6 @@
   </si>
   <si>
     <t>Beheer &gt; Medewerkers &gt; Medewerker</t>
-  </si>
-  <si>
-    <t>Overzichten &gt; Historische Medewerker Rechten</t>
   </si>
   <si>
     <t>Account</t>
@@ -1070,9 +1058,6 @@
     <t>DTV9015</t>
   </si>
   <si>
-    <t>DTV9016</t>
-  </si>
-  <si>
     <t>DTV9044</t>
   </si>
   <si>
@@ -1091,33 +1076,21 @@
     <t>DTV9056</t>
   </si>
   <si>
-    <t>Beheer &gt; Historische urentegoeden</t>
-  </si>
-  <si>
     <t>DTV9090</t>
   </si>
   <si>
-    <t>DTV9091</t>
-  </si>
-  <si>
     <t>Beheer &gt; Toelagen &gt; Toelage</t>
   </si>
   <si>
     <t>DTV5011</t>
   </si>
   <si>
-    <t>Overzichten &gt; Medewerker Rechten &gt; [uitklaptabel op DTV5010]</t>
-  </si>
-  <si>
     <t>te verwerken</t>
   </si>
   <si>
     <t>te corrigeren</t>
   </si>
   <si>
-    <t>Uitval</t>
-  </si>
-  <si>
     <t>te verzenden</t>
   </si>
   <si>
@@ -1133,9 +1106,6 @@
     <t>incomplete medewerkers</t>
   </si>
   <si>
-    <t>Medewerker Rechten</t>
-  </si>
-  <si>
     <t>lijst van personeelsnummers</t>
   </si>
   <si>
@@ -1148,13 +1118,7 @@
     <t>Medewerkers</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Nieuwe Medewerker</t>
-  </si>
-  <si>
-    <t>Beheer &gt; Medewerkers &gt; Medewerker &gt; Arbeidsmodaliteit</t>
   </si>
   <si>
     <t>Beheer &gt;  Toelagen</t>
@@ -1312,27 +1276,12 @@
     <t>DTV9011, DTV9012, DTV9013, DTV9015</t>
   </si>
   <si>
-    <t>DTV9010, DTV9011, DTV9012, DTV9013, DTV9015</t>
-  </si>
-  <si>
-    <t>DTV9010, DTV9014</t>
-  </si>
-  <si>
     <t>DTV9030, DTV9033</t>
   </si>
   <si>
-    <t>DTV5021, DTV1011</t>
-  </si>
-  <si>
     <t>DTV1010, DTV1020, DTV1030</t>
   </si>
   <si>
-    <t>DTV1000, DTV1010, DTV1020, DTV1030</t>
-  </si>
-  <si>
-    <t>DTV1000, DTV1010, DTV1020, DTV1030, DTV1040</t>
-  </si>
-  <si>
     <t>[Scherm]</t>
   </si>
   <si>
@@ -1373,9 +1322,6 @@
   </si>
   <si>
     <t>DTV9080</t>
-  </si>
-  <si>
-    <t>Excel Export Arbeidsrelaties</t>
   </si>
   <si>
     <t>Beheer &gt; Export Arbeidsrelaties</t>
@@ -1541,56 +1487,101 @@
     <t>[Scherm,]</t>
   </si>
   <si>
-    <t>fo</t>
-  </si>
-  <si>
-    <t>TekstReferentie</t>
-  </si>
-  <si>
-    <t>FO 6.1</t>
-  </si>
-  <si>
-    <t>FO 6.2</t>
-  </si>
-  <si>
-    <t>FO 6.3</t>
-  </si>
-  <si>
-    <t>FO 6.4</t>
-  </si>
-  <si>
-    <t>FO 6.5</t>
-  </si>
-  <si>
     <t>Importeren en exporteren van Arbeidsrelaties</t>
   </si>
   <si>
-    <t>FO 6.6</t>
-  </si>
-  <si>
-    <t>FO 6.7</t>
-  </si>
-  <si>
     <t>Beheer &gt; Import Arbeidsmodaliteiten</t>
   </si>
   <si>
-    <t>FO 6.8</t>
-  </si>
-  <si>
-    <t>FO 6.9</t>
-  </si>
-  <si>
-    <t>FO 6.11</t>
-  </si>
-  <si>
-    <t>FO 6.10</t>
+    <t>uitval</t>
+  </si>
+  <si>
+    <t>DTV9011-HR</t>
+  </si>
+  <si>
+    <t>DTV9011-FAB</t>
+  </si>
+  <si>
+    <t>Medewerker Toelagen</t>
+  </si>
+  <si>
+    <t>Beheer &gt;  Import Arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>Beheren Urentegoed Medewerker</t>
+  </si>
+  <si>
+    <t>[Functie,]</t>
+  </si>
+  <si>
+    <t>Fie-1, Fie-2, Fie-3</t>
+  </si>
+  <si>
+    <t>Fie-1, Fie-2, Fie-3, Fie-4</t>
+  </si>
+  <si>
+    <t>DTV1011</t>
+  </si>
+  <si>
+    <t>te corrigeren medewerkers</t>
+  </si>
+  <si>
+    <t>Export Arbeidsrelaties</t>
+  </si>
+  <si>
+    <t>Fie-11, Fie-13</t>
+  </si>
+  <si>
+    <t>corrigeer TWK Medewerkerrechten</t>
+  </si>
+  <si>
+    <t>Overzicht P-Direkt bestanden</t>
+  </si>
+  <si>
+    <t>Medewerkerrechten</t>
+  </si>
+  <si>
+    <t>Overzichten &gt;  Medewerkerrechten</t>
+  </si>
+  <si>
+    <t>Overzichten &gt; Medewerkerrechten &gt; [uitklaptabel op DTV5010]</t>
+  </si>
+  <si>
+    <t>Overzichten &gt; Historische urentegoeden</t>
+  </si>
+  <si>
+    <t>Overzichten &gt; urentegoeden</t>
+  </si>
+  <si>
+    <t>Fie-18</t>
+  </si>
+  <si>
+    <t>DTV5010, DTV5011, DTV5040, DTV5041</t>
+  </si>
+  <si>
+    <t>DTV1011, DTV5021, DTV5022</t>
+  </si>
+  <si>
+    <t>DTV9020, DTV9080</t>
+  </si>
+  <si>
+    <t>DTV1000, DTV1010, DTV1030, DTV1040</t>
+  </si>
+  <si>
+    <t>DTV1000, DTV1010, DTV1030</t>
+  </si>
+  <si>
+    <t>Om te zorgen dat er gebruikers in de rol van FAB of HR kunnen worden toegevoegd en/of verwijderd in de DTV-applicatie, moet de FAB deze mogelijkheid hebben.</t>
+  </si>
+  <si>
+    <t>DTV9010, DTV9011, DTV9012, DTV9013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1614,27 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1644,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1671,15 +1683,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1974,944 +1987,1087 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1">
+    <row r="1" spans="1:8" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>424</v>
+        <v>55</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>404</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>422</v>
+      <c r="F2" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>405</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>447</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="7" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1">
+      <c r="A8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="7" customFormat="1">
+      <c r="A9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1">
+      <c r="A10" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="28.8">
+      <c r="A13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="28.8">
+      <c r="A15" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="28.8">
+      <c r="A16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8">
+      <c r="A17" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" s="7" customFormat="1">
+      <c r="A25" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1">
-      <c r="A6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1">
-      <c r="A7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1">
-      <c r="A8" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
-      <c r="A9" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="28.8">
-      <c r="A12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="28.8">
-      <c r="A14" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" ht="28.8">
-      <c r="A15" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.8">
-      <c r="A16" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.8">
-      <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="H25" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
-      <c r="A25" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="28.8">
-      <c r="A26" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>360</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="7" customFormat="1">
+      <c r="A27" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="7" customFormat="1">
+      <c r="A29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="G32" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="28.8">
-      <c r="A27" s="7" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1">
+      <c r="A36" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1">
+      <c r="A37" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="G37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D28" s="7" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="F38" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="7" customFormat="1">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1">
+      <c r="A40" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1">
+      <c r="A41" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1">
+      <c r="A42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="F42" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="7" customFormat="1">
+      <c r="A43" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
-      <c r="A34" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="F43" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="7" customFormat="1">
+      <c r="A44" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
-      <c r="A35" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B44" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
-      <c r="A37" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
-      <c r="A38" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
-      <c r="A39" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
-      <c r="A40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
-      <c r="A41" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
-      <c r="A42" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
-      <c r="A43" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
-      <c r="E44" s="8"/>
+      <c r="F44" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="7" customFormat="1">
+      <c r="F45" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A35:F82">
@@ -2924,764 +3080,755 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="42.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="40.5546875" style="1"/>
+    <col min="1" max="2" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="40.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>468</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="374.4">
+      <c r="A3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="216">
+      <c r="A4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72">
+      <c r="A5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="374.4">
-      <c r="A3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="230.4">
+      <c r="A6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="216">
-      <c r="A4" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="72">
-      <c r="A5" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="230.4">
-      <c r="A6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="129.6">
+      <c r="A7" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="129.6">
-      <c r="A7" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>474</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>264</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.6">
+      <c r="A8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="172.8">
+      <c r="A9" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.2">
+      <c r="A10" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8">
+      <c r="A11" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="H11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="115.2">
+      <c r="A12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="86.4">
+      <c r="A13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.2">
+      <c r="A14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8">
+      <c r="A15" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8">
+      <c r="A16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="409.6">
-      <c r="A8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="172.8">
-      <c r="A9" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="43.2">
-      <c r="A10" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="I10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.8">
-      <c r="A11" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="I11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="28.8">
+      <c r="A20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="D22" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="115.2">
-      <c r="A12" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="86.4">
-      <c r="A13" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="28.8">
-      <c r="A14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="100.8">
-      <c r="A15" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.8">
-      <c r="A16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="F20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="M21" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="23" spans="1:18">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="M24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="M25" s="1"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="L25" s="1"/>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="J26" s="3"/>
-      <c r="K26" s="6"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="M29" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="I26" s="3"/>
+      <c r="J26" s="6"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="L29" s="5"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:19">
+    </row>
+    <row r="30" spans="1:18">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3691,13 +3838,12 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3724,1098 +3870,1098 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>152</v>
-      </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
         <v>66</v>
-      </c>
-      <c r="H5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
         <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" t="s">
-        <v>81</v>
-      </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" t="s">
-        <v>85</v>
-      </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" t="s">
         <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
         <v>66</v>
-      </c>
-      <c r="H27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
         <v>176</v>
       </c>
-      <c r="F31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>177</v>
-      </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
         <v>176</v>
       </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
-        <v>177</v>
-      </c>
       <c r="H32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
         <v>176</v>
       </c>
-      <c r="F33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" t="s">
-        <v>177</v>
-      </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
         <v>176</v>
       </c>
-      <c r="F34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" t="s">
-        <v>177</v>
-      </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
-        <v>100</v>
-      </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" t="s">
         <v>176</v>
       </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" t="s">
-        <v>177</v>
-      </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" t="s">
         <v>176</v>
       </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" t="s">
-        <v>177</v>
-      </c>
       <c r="H36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
         <v>103</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" t="s">
         <v>104</v>
       </c>
-      <c r="E37" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" t="s">
-        <v>105</v>
-      </c>
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" t="s">
         <v>104</v>
       </c>
-      <c r="E38" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" t="s">
-        <v>105</v>
-      </c>
       <c r="G38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
         <v>108</v>
       </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" t="s">
-        <v>109</v>
-      </c>
       <c r="G39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
       <c r="D40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" t="s">
         <v>112</v>
       </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="C44" t="s">
-        <v>119</v>
-      </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
         <v>120</v>
       </c>
-      <c r="C45" t="s">
-        <v>121</v>
-      </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" t="s">
         <v>66</v>
-      </c>
-      <c r="H45" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
         <v>122</v>
       </c>
-      <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>123</v>
-      </c>
       <c r="E46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
         <v>125</v>
       </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
-        <v>126</v>
-      </c>
       <c r="E47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="C49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" t="s">
-        <v>129</v>
-      </c>
       <c r="E49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
         <v>132</v>
       </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
-      </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I50">
         <v>5010</v>
@@ -4823,134 +4969,134 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
         <v>134</v>
       </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
         <v>137</v>
       </c>
-      <c r="E54" t="s">
-        <v>180</v>
-      </c>
-      <c r="F54" t="s">
-        <v>138</v>
-      </c>
       <c r="G54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
         <v>139</v>
       </c>
-      <c r="B55" t="s">
-        <v>140</v>
-      </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4983,621 +5129,621 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>162</v>
-      </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" t="s">
         <v>190</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
-      </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
-        <v>59</v>
-      </c>
       <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>129</v>
       </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s">
-        <v>130</v>
-      </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" t="s">
-        <v>208</v>
-      </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
         <v>197</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>198</v>
-      </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
         <v>184</v>
       </c>
-      <c r="G15" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>129</v>
       </c>
-      <c r="I15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J15" t="s">
-        <v>130</v>
-      </c>
       <c r="K15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
         <v>186</v>
       </c>
-      <c r="B16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>187</v>
-      </c>
       <c r="G16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" t="s">
         <v>129</v>
       </c>
-      <c r="I16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" t="s">
-        <v>130</v>
-      </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" t="s">
         <v>129</v>
       </c>
-      <c r="I17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" t="s">
-        <v>130</v>
-      </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" t="s">
         <v>128</v>
       </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>130</v>
+      </c>
+      <c r="J23" t="s">
         <v>129</v>
       </c>
-      <c r="I23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>130</v>
-      </c>
-      <c r="K23" t="s">
-        <v>131</v>
       </c>
       <c r="L23" t="s">
         <v>1</v>
@@ -5605,48 +5751,48 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" t="s">
         <v>204</v>
-      </c>
-      <c r="J24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
         <v>132</v>
       </c>
-      <c r="B25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>133</v>
-      </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L25">
         <v>5010</v>
@@ -5654,817 +5800,817 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
         <v>134</v>
       </c>
-      <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>135</v>
-      </c>
       <c r="H26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
         <v>180</v>
       </c>
-      <c r="C27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>181</v>
-      </c>
       <c r="G27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" t="s">
-        <v>140</v>
-      </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J30" t="s">
         <v>141</v>
       </c>
-      <c r="B30" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" t="s">
-        <v>142</v>
-      </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" t="s">
         <v>213</v>
-      </c>
-      <c r="B32" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" t="s">
-        <v>129</v>
-      </c>
-      <c r="I32" t="s">
-        <v>105</v>
-      </c>
-      <c r="J32" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
         <v>158</v>
       </c>
-      <c r="C34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" t="s">
-        <v>159</v>
-      </c>
       <c r="I34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
         <v>158</v>
       </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" t="s">
-        <v>159</v>
-      </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" t="s">
         <v>158</v>
       </c>
-      <c r="C36" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" t="s">
-        <v>159</v>
-      </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" t="s">
-        <v>159</v>
-      </c>
       <c r="I37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s">
-        <v>159</v>
-      </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" t="s">
         <v>158</v>
       </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" t="s">
-        <v>159</v>
-      </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" t="s">
         <v>66</v>
-      </c>
-      <c r="K42" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
         <v>89</v>
       </c>
-      <c r="F43" t="s">
-        <v>90</v>
-      </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43" t="s">
         <v>66</v>
-      </c>
-      <c r="K43" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>103</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s">
         <v>176</v>
       </c>
-      <c r="C48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H48" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48" t="s">
-        <v>85</v>
-      </c>
-      <c r="J48" t="s">
-        <v>177</v>
-      </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="s">
+        <v>66</v>
+      </c>
+      <c r="J49" t="s">
         <v>176</v>
       </c>
-      <c r="C49" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" t="s">
-        <v>104</v>
-      </c>
-      <c r="I49" t="s">
-        <v>67</v>
-      </c>
-      <c r="J49" t="s">
-        <v>177</v>
-      </c>
       <c r="K49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" t="s">
         <v>176</v>
       </c>
-      <c r="C50" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" t="s">
-        <v>96</v>
-      </c>
-      <c r="H50" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" t="s">
-        <v>131</v>
-      </c>
-      <c r="J50" t="s">
-        <v>177</v>
-      </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51" t="s">
         <v>176</v>
       </c>
-      <c r="C51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" t="s">
-        <v>131</v>
-      </c>
-      <c r="J51" t="s">
-        <v>177</v>
-      </c>
       <c r="K51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
         <v>176</v>
       </c>
-      <c r="C52" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" t="s">
-        <v>31</v>
-      </c>
-      <c r="I52" t="s">
-        <v>72</v>
-      </c>
-      <c r="J52" t="s">
-        <v>177</v>
-      </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="2:11">
       <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
+        <v>101</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" t="s">
         <v>176</v>
       </c>
-      <c r="C53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" t="s">
-        <v>31</v>
-      </c>
-      <c r="I53" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53" t="s">
-        <v>177</v>
-      </c>
       <c r="K53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" t="s">
         <v>107</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s">
         <v>108</v>
       </c>
-      <c r="H55" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" t="s">
-        <v>109</v>
-      </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
         <v>110</v>
       </c>
-      <c r="G56" t="s">
-        <v>111</v>
-      </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:11">
       <c r="B57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
         <v>112</v>
       </c>
-      <c r="G57" t="s">
-        <v>113</v>
-      </c>
       <c r="H57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="2:11">
       <c r="B59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E60" t="s">
+        <v>117</v>
+      </c>
+      <c r="G60" t="s">
         <v>118</v>
       </c>
-      <c r="G60" t="s">
-        <v>119</v>
-      </c>
       <c r="H60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" t="s">
         <v>120</v>
       </c>
-      <c r="G61" t="s">
-        <v>121</v>
-      </c>
       <c r="H61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J61" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" t="s">
         <v>66</v>
-      </c>
-      <c r="K61" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6494,36 +6640,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2">
@@ -6531,16 +6677,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2">
@@ -6548,16 +6694,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2">
@@ -6565,50 +6711,50 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
+++ b/NVWA DTV/werkdocumenten/Analyse Interfaces .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="-1152" yWindow="468" windowWidth="14136" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Schermen" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="499">
   <si>
     <t>Scherm</t>
   </si>
@@ -1292,12 +1292,6 @@
   </si>
   <si>
     <t>auth</t>
-  </si>
-  <si>
-    <t>,Rol</t>
-  </si>
-  <si>
-    <t>pad</t>
   </si>
   <si>
     <t>funcSpec</t>
@@ -1576,12 +1570,119 @@
   <si>
     <t>DTV9010, DTV9011, DTV9012, DTV9013</t>
   </si>
+  <si>
+    <t>Fie-1, Fie-2, Fie-19</t>
+  </si>
+  <si>
+    <t>Fie-19</t>
+  </si>
+  <si>
+    <t>Overzichten &gt; Perioderesultaten</t>
+  </si>
+  <si>
+    <t>Overzicht Perioderesultaten</t>
+  </si>
+  <si>
+    <t>Overzicht Urentegoeden</t>
+  </si>
+  <si>
+    <t>Dit overzicht stelt een P&amp;O-medewerker in staat om snel inzicht te krijgen in resultaten van de kennismotor per medewerker. Dit is van belang om aan de telefoon vragen te kunnen beantwoorden, waarbij er geen tijd is om via het datawarehouse naar gegevens te kijken.</t>
+  </si>
+  <si>
+    <t>Dit overzicht stelt een P&amp;O-medewerker in staat om snel inzicht te krijgen in Historische urentegoeden van een medewerker. Dit is van belang om aan de telefoon vragen te kunnen beantwoorden, waarbij er geen tijd is om via het datawarehouse naar gegevens te kijken.</t>
+  </si>
+  <si>
+    <t>Dit overzicht stelt een P&amp;O-medewerker in staat om snel inzicht te krijgen in (historische) medewerkerrechten van een medewerker. Dit is van belang om aan de telefoon vragen te kunnen beantwoorden, waarbij er geen tijd is om via het datawarehouse naar gegevens te kijken.</t>
+  </si>
+  <si>
+    <t>het raadplegen van Medewerkerrechten.</t>
+  </si>
+  <si>
+    <t>Dit is van belang voor een P&amp;O-medewerker om onvolledige gegevens van medewerkers handmatig te kunnen aanvullen in de DTV-applicatie.</t>
+  </si>
+  <si>
+    <t>Wanneer nieuwe medewerkers via een periodebatch uit SPIN komen, kan de P&amp;O-medewerker de vaste gegevens van deze medewerker met de hand aanvullen.</t>
+  </si>
+  <si>
+    <t>Aanvullen incomplete medewerkers</t>
+  </si>
+  <si>
+    <t>Overzicht Medewerkerrechten</t>
+  </si>
+  <si>
+    <t>het ophalen van een actuele lijst van alle P-Direktbestanden, die in het verleden zijn verzameld.</t>
+  </si>
+  <si>
+    <t>[Rol,]</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">het raadplegen van </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urentegoeden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">het raadplegen van </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>medewerkerresultaten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>kruimelpad</t>
+  </si>
+  <si>
+    <t>Fie-5, Fie-19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1606,12 +1707,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -1656,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1673,9 +1768,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1683,16 +1775,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1989,439 +2093,439 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="38" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38" style="7" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1">
+      <c r="A5" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1">
+      <c r="A7" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F8" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1">
-      <c r="A5" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="7" t="s">
+    <row r="9" spans="1:8" s="6" customFormat="1">
+      <c r="A9" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="7" customFormat="1">
-      <c r="A7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="28.8">
+      <c r="A13" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" ht="28.8">
+      <c r="A15" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
-      <c r="A8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" ht="28.8">
+      <c r="A16" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
-      <c r="A9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8">
+      <c r="A17" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1">
-      <c r="A10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="28.8">
-      <c r="A13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="28.8">
-      <c r="A15" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="28.8">
-      <c r="A16" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8">
-      <c r="A17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2429,645 +2533,645 @@
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1">
+      <c r="A27" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8">
+      <c r="A28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1">
+      <c r="A29" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1">
+      <c r="A37" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="6" customFormat="1">
+      <c r="A39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1">
+      <c r="A40" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="6" customFormat="1">
+      <c r="A41" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="6" customFormat="1">
+      <c r="A42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F42" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="6" customFormat="1">
+      <c r="A43" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1">
-      <c r="A25" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="7" customFormat="1">
-      <c r="A27" s="7" t="s">
+      <c r="F43" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8">
-      <c r="A28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="7" customFormat="1">
-      <c r="A29" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1">
-      <c r="A36" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1">
-      <c r="A37" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1">
-      <c r="A39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="7" customFormat="1">
-      <c r="A40" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1">
-      <c r="A41" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="7" customFormat="1">
-      <c r="A42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="7" customFormat="1">
-      <c r="A43" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="7" customFormat="1">
-      <c r="A44" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="G44" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="7" customFormat="1">
-      <c r="F45" s="8"/>
+    </row>
+    <row r="45" spans="1:8" s="6" customFormat="1">
+      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A35:F82">
@@ -3080,770 +3184,851 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="42.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="40.5546875" style="1"/>
+    <col min="1" max="2" width="9.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="42.33203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="40.5546875" style="12"/>
+    <col min="14" max="16384" width="40.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="12" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="374.4">
+      <c r="A3" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="216">
+      <c r="A4" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72">
+      <c r="A5" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="230.4">
+      <c r="A6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="129.6">
+      <c r="A7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="409.6">
+      <c r="A8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="172.8">
+      <c r="A9" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="D9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="13">
+        <v>2</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="43.2">
+      <c r="A10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="H10" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.8">
+      <c r="A11" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="H11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="115.2">
+      <c r="A12" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="86.4">
+      <c r="A13" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.2">
+      <c r="A14" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="374.4">
-      <c r="A3" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K14" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8">
+      <c r="A15" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="216">
-      <c r="A4" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I15" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8">
+      <c r="A16" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="28.8">
+      <c r="A17" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="43.2">
+      <c r="A18" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="72">
-      <c r="A5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I18" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="72">
+      <c r="A19" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="230.4">
-      <c r="A6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I19" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="72">
+      <c r="A20" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="129.6">
-      <c r="A7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="J20" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="72">
+      <c r="A21" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="J21" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="409.6">
-      <c r="A8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="172.8">
-      <c r="A9" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="4">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="43.2">
-      <c r="A10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.8">
-      <c r="A11" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="H11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="115.2">
-      <c r="A12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="86.4">
-      <c r="A13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="43.2">
-      <c r="A14" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="100.8">
-      <c r="A15" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28.8">
-      <c r="A16" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="28.8">
-      <c r="A20" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="D22" s="1" t="s">
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="D23" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="L25" s="1"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="I26" s="3"/>
-      <c r="J26" s="6"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="L29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+    <row r="24" spans="1:17">
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="L26" s="12"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="L30" s="12"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
